--- a/text.xlsx
+++ b/text.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -396,63 +396,49 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Peter Van Marcke</v>
+        <v>ICTtest Student1</v>
       </c>
       <c r="B2" t="str">
-        <v>peter.vanmarcke@kdg.be</v>
+        <v>icttest.student1@student.kdg.be</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Roeptest Teststudent1</v>
+        <v>Margaux De Vos</v>
       </c>
       <c r="B3" t="str">
-        <v>test.teststudent1@student.kdg.be</v>
+        <v>margaux.devos@kdg.be</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Test Student</v>
+        <v>Peter TestStudent1</v>
       </c>
       <c r="B4" t="str">
-        <v>onbekend</v>
+        <v>petervmarcke+1@gmail.com</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Veerle Meuleman</v>
-      </c>
-      <c r="B5" t="str">
-        <v>veerle.meuleman@student.kdg.be</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/text.xlsx
+++ b/text.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -396,49 +396,63 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>ICTtest Student1</v>
+        <v>Peter Van Marcke</v>
       </c>
       <c r="B2" t="str">
-        <v>icttest.student1@student.kdg.be</v>
+        <v>peter.vanmarcke@kdg.be</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Margaux De Vos</v>
+        <v>Roeptest Teststudent1</v>
       </c>
       <c r="B3" t="str">
-        <v>margaux.devos@kdg.be</v>
+        <v>test.teststudent1@student.kdg.be</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Peter TestStudent1</v>
+        <v>Test Student</v>
       </c>
       <c r="B4" t="str">
-        <v>petervmarcke+1@gmail.com</v>
+        <v>onbekend</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Veerle Meuleman</v>
+      </c>
+      <c r="B5" t="str">
+        <v>veerle.meuleman@student.kdg.be</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/text.xlsx
+++ b/text.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D352"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -396,63 +396,4921 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Peter Van Marcke</v>
+        <v>Evelien Claes</v>
       </c>
       <c r="B2" t="str">
-        <v>peter.vanmarcke@kdg.be</v>
+        <v>evelien.claes@student.kdg.be</v>
       </c>
       <c r="C2">
+        <v>23</v>
+      </c>
+      <c r="D2">
         <v>7</v>
-      </c>
-      <c r="D2">
-        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Roeptest Teststudent1</v>
+        <v>Fien Engels</v>
       </c>
       <c r="B3" t="str">
-        <v>test.teststudent1@student.kdg.be</v>
+        <v>fien.engels@student.kdg.be</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Test Student</v>
+        <v>Yana Leuris</v>
       </c>
       <c r="B4" t="str">
-        <v>onbekend</v>
+        <v>yana.leuris@student.kdg.be</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Veerle Meuleman</v>
+        <v>Elen Khlghatyan</v>
       </c>
       <c r="B5" t="str">
-        <v>veerle.meuleman@student.kdg.be</v>
+        <v>elen.khlghatyan@student.kdg.be</v>
       </c>
       <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Lisse van Rijckevorsel</v>
+      </c>
+      <c r="B6" t="str">
+        <v>lisse.vanrijckevorsel@student.kdg.be</v>
+      </c>
+      <c r="C6">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Elena De Weerdt</v>
+      </c>
+      <c r="B7" t="str">
+        <v>elena.deweerdt@student.kdg.be</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Cedric Vermeiren</v>
+      </c>
+      <c r="B8" t="str">
+        <v>cedric.vermeiren@student.kdg.be</v>
+      </c>
+      <c r="C8">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Floor Klein Ovink</v>
+      </c>
+      <c r="B9" t="str">
+        <v>floor.kleinovink@student.kdg.be</v>
+      </c>
+      <c r="C9">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Alex Weyens</v>
+      </c>
+      <c r="B10" t="str">
+        <v>alex.weyens@student.kdg.be</v>
+      </c>
+      <c r="C10">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Ilana Chaves</v>
+      </c>
+      <c r="B11" t="str">
+        <v>ilana.chaves@student.kdg.be</v>
+      </c>
+      <c r="C11">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Wannes Mertens</v>
+      </c>
+      <c r="B12" t="str">
+        <v>wannes.mertens@student.kdg.be</v>
+      </c>
+      <c r="C12">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>merve kalkan</v>
+      </c>
+      <c r="B13" t="str">
+        <v>merve.kalkan@student.kdg.be</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Lise Derboven</v>
+      </c>
+      <c r="B14" t="str">
+        <v>lise.derboven@student.kdg.be</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Brent Vroemans</v>
+      </c>
+      <c r="B15" t="str">
+        <v>brent.vroemans@student.kdg.be</v>
+      </c>
+      <c r="C15">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Charlotte Wauters</v>
+      </c>
+      <c r="B16" t="str">
+        <v>charlotte.wauters@student.kdg.be</v>
+      </c>
+      <c r="C16">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Lisse Melis</v>
+      </c>
+      <c r="B17" t="str">
+        <v>lisse.melis@student.kdg.be</v>
+      </c>
+      <c r="C17">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Luc Paridaens</v>
+      </c>
+      <c r="B18" t="str">
+        <v>luc.paridaens@student.kdg.be</v>
+      </c>
+      <c r="C18">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>otimay koina</v>
+      </c>
+      <c r="B19" t="str">
+        <v>otimay.koina@student.kdg.be</v>
+      </c>
+      <c r="C19">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Arzu Dobbelaere</v>
+      </c>
+      <c r="B20" t="str">
+        <v>arzu.dobbelaere@student.kdg.be</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Emilie Hilegems</v>
+      </c>
+      <c r="B21" t="str">
+        <v>emilie.hilegems@student.kdg.be</v>
+      </c>
+      <c r="C21">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Vanessa Coppieters</v>
+      </c>
+      <c r="B22" t="str">
+        <v>vanessa.coppieters@student.kdg.be</v>
+      </c>
+      <c r="C22">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Alize Dekkers</v>
+      </c>
+      <c r="B23" t="str">
+        <v>alize.dekkers@student.kdg.be</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Lotte van Daal</v>
+      </c>
+      <c r="B24" t="str">
+        <v>lotte.vandaal@student.kdg.be</v>
+      </c>
+      <c r="C24">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Ginger Mangelschots</v>
+      </c>
+      <c r="B25" t="str">
+        <v>ginger.mangelschots@student.kdg.be</v>
+      </c>
+      <c r="C25">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Lunalisa Nölte</v>
+      </c>
+      <c r="B26" t="str">
+        <v>lunalisa.nolte@student.kdg.be</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Kaat Hendrickx</v>
+      </c>
+      <c r="B27" t="str">
+        <v>kaat.hendrickx@student.kdg.be</v>
+      </c>
+      <c r="C27">
+        <v>31</v>
+      </c>
+      <c r="D27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Eva Kinable</v>
+      </c>
+      <c r="B28" t="str">
+        <v>eva.kinable@student.kdg.be</v>
+      </c>
+      <c r="C28">
+        <v>34</v>
+      </c>
+      <c r="D28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Niels Nagels</v>
+      </c>
+      <c r="B29" t="str">
+        <v>niels.nagels@student.kdg.be</v>
+      </c>
+      <c r="C29">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Jessy Desodt</v>
+      </c>
+      <c r="B30" t="str">
+        <v>jessy.desodt@student.kdg.be</v>
+      </c>
+      <c r="C30">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Amber Debeer</v>
+      </c>
+      <c r="B31" t="str">
+        <v>amber.debeer@student.kdg.be</v>
+      </c>
+      <c r="C31">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Jana Van Ranst</v>
+      </c>
+      <c r="B32" t="str">
+        <v>jana.vanranst@student.kdg.be</v>
+      </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Arlinda Racaj</v>
+      </c>
+      <c r="B33" t="str">
+        <v>arlinda.racaj@student.kdg.be</v>
+      </c>
+      <c r="C33">
+        <v>27</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Vera Venhuizen</v>
+      </c>
+      <c r="B34" t="str">
+        <v>vera.venhuizen@student.kdg.be</v>
+      </c>
+      <c r="C34">
+        <v>25</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Nathalie Mandaglio</v>
+      </c>
+      <c r="B35" t="str">
+        <v>nathalie.mandaglio@student.kdg.be</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Jordy Van de Velde</v>
+      </c>
+      <c r="B36" t="str">
+        <v>jordy.vandevelde@student.kdg.be</v>
+      </c>
+      <c r="C36">
+        <v>26</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Nathalie Bleyenberg</v>
+      </c>
+      <c r="B37" t="str">
+        <v>nathalie.bleyenberg@student.kdg.be</v>
+      </c>
+      <c r="C37">
+        <v>31</v>
+      </c>
+      <c r="D37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Margaux Lousberg</v>
+      </c>
+      <c r="B38" t="str">
+        <v>margaux.lousberg@student.kdg.be</v>
+      </c>
+      <c r="C38">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Achille Oversteijns</v>
+      </c>
+      <c r="B39" t="str">
+        <v>achille.oversteijns@student.kdg.be</v>
+      </c>
+      <c r="C39">
+        <v>26</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Natanya Tardie</v>
+      </c>
+      <c r="B40" t="str">
+        <v>natanya.tardie@student.kdg.be</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Noa Van Bellinghen</v>
+      </c>
+      <c r="B41" t="str">
+        <v>noa.vanbellinghen@student.kdg.be</v>
+      </c>
+      <c r="C41">
+        <v>30</v>
+      </c>
+      <c r="D41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Indy Van Laer</v>
+      </c>
+      <c r="B42" t="str">
+        <v>indy.vanlaer@student.kdg.be</v>
+      </c>
+      <c r="C42">
         <v>8</v>
       </c>
-      <c r="D5">
-        <v>50</v>
+      <c r="D42">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Kirsten Luyckx</v>
+      </c>
+      <c r="B43" t="str">
+        <v>kirsten.luyckx.1@student.kdg.be</v>
+      </c>
+      <c r="C43">
+        <v>28</v>
+      </c>
+      <c r="D43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Bram Govaerts</v>
+      </c>
+      <c r="B44" t="str">
+        <v>bram.govaerts@student.kdg.be</v>
+      </c>
+      <c r="C44">
+        <v>25</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>eveline claes</v>
+      </c>
+      <c r="B45" t="str">
+        <v>eveline.claes@student.kdg.be</v>
+      </c>
+      <c r="C45">
+        <v>21</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Fleur de Jong</v>
+      </c>
+      <c r="B46" t="str">
+        <v>fleur.dejong@student.kdg.be</v>
+      </c>
+      <c r="C46">
+        <v>22</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Famke Hellemans</v>
+      </c>
+      <c r="B47" t="str">
+        <v>famke.hellemans@student.kdg.be</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Arta Fejzulahi</v>
+      </c>
+      <c r="B48" t="str">
+        <v>arta.fejzulahi@student.kdg.be</v>
+      </c>
+      <c r="C48">
+        <v>25</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Femke Roels</v>
+      </c>
+      <c r="B49" t="str">
+        <v>femke.roels@student.kdg.be</v>
+      </c>
+      <c r="C49">
+        <v>29</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Robbe Marivoet</v>
+      </c>
+      <c r="B50" t="str">
+        <v>robbe.marivoet@student.kdg.be</v>
+      </c>
+      <c r="C50">
+        <v>21</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Inka Van Dyck</v>
+      </c>
+      <c r="B51" t="str">
+        <v>katinka.vandyck@student.kdg.be</v>
+      </c>
+      <c r="C51">
+        <v>25</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Nena-Andrea Weiner</v>
+      </c>
+      <c r="B52" t="str">
+        <v>nenaandrea.weiner@student.kdg.be</v>
+      </c>
+      <c r="C52">
+        <v>26</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Nisrîn Mali</v>
+      </c>
+      <c r="B53" t="str">
+        <v>nisrin.mali@student.kdg.be</v>
+      </c>
+      <c r="C53">
+        <v>32</v>
+      </c>
+      <c r="D53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Selma Boulalouche</v>
+      </c>
+      <c r="B54" t="str">
+        <v>selma.boulalouche@student.kdg.be</v>
+      </c>
+      <c r="C54">
+        <v>24</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Liese Daems</v>
+      </c>
+      <c r="B55" t="str">
+        <v>liese.daems@student.kdg.be</v>
+      </c>
+      <c r="C55">
+        <v>34</v>
+      </c>
+      <c r="D55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Tiffany T'Jaeckx</v>
+      </c>
+      <c r="B56" t="str">
+        <v>tiffany.tjaeckx@student.kdg.be</v>
+      </c>
+      <c r="C56">
+        <v>34</v>
+      </c>
+      <c r="D56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Anke Schoonvaere</v>
+      </c>
+      <c r="B57" t="str">
+        <v>anke.schoonvaere@student.kdg.be</v>
+      </c>
+      <c r="C57">
+        <v>31</v>
+      </c>
+      <c r="D57">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Marlene Van Cauteren</v>
+      </c>
+      <c r="B58" t="str">
+        <v>marlene.vancauteren@student.kdg.be</v>
+      </c>
+      <c r="C58">
+        <v>23</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Roxanne Van der donck</v>
+      </c>
+      <c r="B59" t="str">
+        <v>roxanne.vanderdonck@student.kdg.be</v>
+      </c>
+      <c r="C59">
+        <v>34</v>
+      </c>
+      <c r="D59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Elif Uçan</v>
+      </c>
+      <c r="B60" t="str">
+        <v>elif.ucan@student.kdg.be</v>
+      </c>
+      <c r="C60">
+        <v>28</v>
+      </c>
+      <c r="D60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>emilie heroes</v>
+      </c>
+      <c r="B61" t="str">
+        <v>emilie.heroes@student.kdg.be</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Loeke Nuyts</v>
+      </c>
+      <c r="B62" t="str">
+        <v>loeke.nuyts@student.kdg.be</v>
+      </c>
+      <c r="C62">
+        <v>24</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Lien Joppen</v>
+      </c>
+      <c r="B63" t="str">
+        <v>lien.joppen@student.kdg.be</v>
+      </c>
+      <c r="C63">
+        <v>23</v>
+      </c>
+      <c r="D63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Leontien Siongers</v>
+      </c>
+      <c r="B64" t="str">
+        <v>leontien.siongers@student.kdg.be</v>
+      </c>
+      <c r="C64">
+        <v>31</v>
+      </c>
+      <c r="D64">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Julia Heykants</v>
+      </c>
+      <c r="B65" t="str">
+        <v>julia.heykants@student.kdg.be</v>
+      </c>
+      <c r="C65">
+        <v>24</v>
+      </c>
+      <c r="D65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Yannick Bos</v>
+      </c>
+      <c r="B66" t="str">
+        <v>yannick.bos@student.kdg.be</v>
+      </c>
+      <c r="C66">
+        <v>21</v>
+      </c>
+      <c r="D66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Tibo De Brabander</v>
+      </c>
+      <c r="B67" t="str">
+        <v>tibo.debrabander@student.kdg.be</v>
+      </c>
+      <c r="C67">
+        <v>28</v>
+      </c>
+      <c r="D67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Jolien Van Looveren</v>
+      </c>
+      <c r="B68" t="str">
+        <v>jolien.vanlooveren.1@student.kdg.be</v>
+      </c>
+      <c r="C68">
+        <v>24</v>
+      </c>
+      <c r="D68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Hanne Thijssen</v>
+      </c>
+      <c r="B69" t="str">
+        <v>hanne.thijssen@student.kdg.be</v>
+      </c>
+      <c r="C69">
+        <v>28</v>
+      </c>
+      <c r="D69">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Kyara Dubois</v>
+      </c>
+      <c r="B70" t="str">
+        <v>kyara.dubois@student.kdg.be</v>
+      </c>
+      <c r="C70">
+        <v>31</v>
+      </c>
+      <c r="D70">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Daphne Van den Bossche</v>
+      </c>
+      <c r="B71" t="str">
+        <v>daphne.vandenbossche@student.kdg.be</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Emma De Vliegere</v>
+      </c>
+      <c r="B72" t="str">
+        <v>emma.devliegere@student.kdg.be</v>
+      </c>
+      <c r="C72">
+        <v>27</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Lotte Klinck</v>
+      </c>
+      <c r="B73" t="str">
+        <v>lotte.klinck@student.kdg.be</v>
+      </c>
+      <c r="C73">
+        <v>35</v>
+      </c>
+      <c r="D73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Sarah Magnus</v>
+      </c>
+      <c r="B74" t="str">
+        <v>sarah.magnus@student.kdg.be</v>
+      </c>
+      <c r="C74">
+        <v>31</v>
+      </c>
+      <c r="D74">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Charlotte Cauwelier</v>
+      </c>
+      <c r="B75" t="str">
+        <v>charlotte.cauwelier@student.kdg.be</v>
+      </c>
+      <c r="C75">
+        <v>32</v>
+      </c>
+      <c r="D75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Jitse Verwimp</v>
+      </c>
+      <c r="B76" t="str">
+        <v>jitse.verwimp@student.kdg.be</v>
+      </c>
+      <c r="C76">
+        <v>34</v>
+      </c>
+      <c r="D76">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Romi Sanders</v>
+      </c>
+      <c r="B77" t="str">
+        <v>romi.sanders@student.kdg.be</v>
+      </c>
+      <c r="C77">
+        <v>26</v>
+      </c>
+      <c r="D77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Fenne Hoobergs</v>
+      </c>
+      <c r="B78" t="str">
+        <v>fenne.hoobergs@student.kdg.be</v>
+      </c>
+      <c r="C78">
+        <v>31</v>
+      </c>
+      <c r="D78">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Silke De Lathouwer</v>
+      </c>
+      <c r="B79" t="str">
+        <v>silke.delathouwer@student.kdg.be</v>
+      </c>
+      <c r="C79">
+        <v>26</v>
+      </c>
+      <c r="D79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Bo Declercq</v>
+      </c>
+      <c r="B80" t="str">
+        <v>bo.declercq@student.kdg.be</v>
+      </c>
+      <c r="C80">
+        <v>24</v>
+      </c>
+      <c r="D80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Yorben Overdulve</v>
+      </c>
+      <c r="B81" t="str">
+        <v>yorben.overdulve@student.kdg.be</v>
+      </c>
+      <c r="C81">
+        <v>15</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Lize Van Campenhout</v>
+      </c>
+      <c r="B82" t="str">
+        <v>lize.vancampenhout@student.kdg.be</v>
+      </c>
+      <c r="C82">
+        <v>35</v>
+      </c>
+      <c r="D82">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Aurélie Moons</v>
+      </c>
+      <c r="B83" t="str">
+        <v>aurelie.moons@student.kdg.be</v>
+      </c>
+      <c r="C83">
+        <v>31</v>
+      </c>
+      <c r="D83">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Michelle Janssen</v>
+      </c>
+      <c r="B84" t="str">
+        <v>michelle.janssen@student.kdg.be</v>
+      </c>
+      <c r="C84">
+        <v>30</v>
+      </c>
+      <c r="D84">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Annelies Duerloo</v>
+      </c>
+      <c r="B85" t="str">
+        <v>annelies.duerloo@student.kdg.be</v>
+      </c>
+      <c r="C85">
+        <v>35</v>
+      </c>
+      <c r="D85">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Yasmine Bayoumi</v>
+      </c>
+      <c r="B86" t="str">
+        <v>yasmine.bayoumi@student.kdg.be</v>
+      </c>
+      <c r="C86">
+        <v>31</v>
+      </c>
+      <c r="D86">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Julie van der Schouw</v>
+      </c>
+      <c r="B87" t="str">
+        <v>julie.vanderschouw@student.kdg.be</v>
+      </c>
+      <c r="C87">
+        <v>22</v>
+      </c>
+      <c r="D87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Cheyenne Kesteleyn</v>
+      </c>
+      <c r="B88" t="str">
+        <v>cheyenne.kesteleyn@student.kdg.be</v>
+      </c>
+      <c r="C88">
+        <v>31</v>
+      </c>
+      <c r="D88">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Chaya Nevejans</v>
+      </c>
+      <c r="B89" t="str">
+        <v>chaya.nevejans@student.kdg.be</v>
+      </c>
+      <c r="C89">
+        <v>29</v>
+      </c>
+      <c r="D89">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Tessa Zwaenepoel</v>
+      </c>
+      <c r="B90" t="str">
+        <v>tessa.zwaenepoel@student.kdg.be</v>
+      </c>
+      <c r="C90">
+        <v>35</v>
+      </c>
+      <c r="D90">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Jolien Clement</v>
+      </c>
+      <c r="B91" t="str">
+        <v>jolien.clement@student.kdg.be</v>
+      </c>
+      <c r="C91">
+        <v>27</v>
+      </c>
+      <c r="D91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Thirsa Verspreet</v>
+      </c>
+      <c r="B92" t="str">
+        <v>thirsa.verspreet@student.kdg.be</v>
+      </c>
+      <c r="C92">
+        <v>29</v>
+      </c>
+      <c r="D92">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Jolien Putters</v>
+      </c>
+      <c r="B93" t="str">
+        <v>jolien.putters@student.kdg.be</v>
+      </c>
+      <c r="C93">
+        <v>28</v>
+      </c>
+      <c r="D93">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Laura Peeters</v>
+      </c>
+      <c r="B94" t="str">
+        <v>laura.peeters.5@student.kdg.be</v>
+      </c>
+      <c r="C94">
+        <v>34</v>
+      </c>
+      <c r="D94">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Rikke Beeckmans</v>
+      </c>
+      <c r="B95" t="str">
+        <v>rikke.beeckmans@student.kdg.be</v>
+      </c>
+      <c r="C95">
+        <v>32</v>
+      </c>
+      <c r="D95">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Lieselotte De Kinder</v>
+      </c>
+      <c r="B96" t="str">
+        <v>lieselotte.dekinder@student.kdg.be</v>
+      </c>
+      <c r="C96">
+        <v>37</v>
+      </c>
+      <c r="D96">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Lauren Maris</v>
+      </c>
+      <c r="B97" t="str">
+        <v>lauren.maris@student.kdg.be</v>
+      </c>
+      <c r="C97">
+        <v>33</v>
+      </c>
+      <c r="D97">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Nette Peeters</v>
+      </c>
+      <c r="B98" t="str">
+        <v>nette.peeters@student.kdg.be</v>
+      </c>
+      <c r="C98">
+        <v>29</v>
+      </c>
+      <c r="D98">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Caro Corluy</v>
+      </c>
+      <c r="B99" t="str">
+        <v>caro.corluy@student.kdg.be</v>
+      </c>
+      <c r="C99">
+        <v>32</v>
+      </c>
+      <c r="D99">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Pieter-Jan Vervloesem</v>
+      </c>
+      <c r="B100" t="str">
+        <v>pieter-jan.vervloesem@student.kdg.be</v>
+      </c>
+      <c r="C100">
+        <v>26</v>
+      </c>
+      <c r="D100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Imani Gijbels</v>
+      </c>
+      <c r="B101" t="str">
+        <v>imani.gijbels@student.kdg.be</v>
+      </c>
+      <c r="C101">
+        <v>29</v>
+      </c>
+      <c r="D101">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Manon Fieuw</v>
+      </c>
+      <c r="B102" t="str">
+        <v>manon.fieuw@student.kdg.be</v>
+      </c>
+      <c r="C102">
+        <v>37</v>
+      </c>
+      <c r="D102">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Amber Laenen</v>
+      </c>
+      <c r="B103" t="str">
+        <v>amber.laenen@student.kdg.be</v>
+      </c>
+      <c r="C103">
+        <v>33</v>
+      </c>
+      <c r="D103">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Shirley Schreurs</v>
+      </c>
+      <c r="B104" t="str">
+        <v>shirley.schreurs@student.kdg.be</v>
+      </c>
+      <c r="C104">
+        <v>34</v>
+      </c>
+      <c r="D104">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>june Raeymakers</v>
+      </c>
+      <c r="B105" t="str">
+        <v>june.raeymakers@student.kdg.be</v>
+      </c>
+      <c r="C105">
+        <v>32</v>
+      </c>
+      <c r="D105">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Tine Helgers</v>
+      </c>
+      <c r="B106" t="str">
+        <v>tine.helgers@student.kdg.be</v>
+      </c>
+      <c r="C106">
+        <v>36</v>
+      </c>
+      <c r="D106">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Laura Van de Voorde</v>
+      </c>
+      <c r="B107" t="str">
+        <v>laura.vandevoorde.1@student.kdg.be</v>
+      </c>
+      <c r="C107">
+        <v>31</v>
+      </c>
+      <c r="D107">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Melissa Snauwaert</v>
+      </c>
+      <c r="B108" t="str">
+        <v>melissa.snauwaert@student.kdg.be</v>
+      </c>
+      <c r="C108">
+        <v>35</v>
+      </c>
+      <c r="D108">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Emma Huyghe</v>
+      </c>
+      <c r="B109" t="str">
+        <v>emma.huyghe@student.kdg.be</v>
+      </c>
+      <c r="C109">
+        <v>37</v>
+      </c>
+      <c r="D109">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Yentl Cools</v>
+      </c>
+      <c r="B110" t="str">
+        <v>yentl.cools@student.kdg.be</v>
+      </c>
+      <c r="C110">
+        <v>33</v>
+      </c>
+      <c r="D110">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Aline Huygen</v>
+      </c>
+      <c r="B111" t="str">
+        <v>aline.huygen@student.kdg.be</v>
+      </c>
+      <c r="C111">
+        <v>22</v>
+      </c>
+      <c r="D111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Bram Lenaerts</v>
+      </c>
+      <c r="B112" t="str">
+        <v>bram.lenaerts@student.kdg.be</v>
+      </c>
+      <c r="C112">
+        <v>30</v>
+      </c>
+      <c r="D112">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Britt Van de Pol</v>
+      </c>
+      <c r="B113" t="str">
+        <v>britt.vandepol@student.kdg.be</v>
+      </c>
+      <c r="C113">
+        <v>32</v>
+      </c>
+      <c r="D113">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Aline Van Staeyen</v>
+      </c>
+      <c r="B114" t="str">
+        <v>aline.vanstaeyen@student.kdg.be</v>
+      </c>
+      <c r="C114">
+        <v>28</v>
+      </c>
+      <c r="D114">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Anouk Wintjens</v>
+      </c>
+      <c r="B115" t="str">
+        <v>anouk.wintjens@student.kdg.be</v>
+      </c>
+      <c r="C115">
+        <v>36</v>
+      </c>
+      <c r="D115">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Yara Van Looveren</v>
+      </c>
+      <c r="B116" t="str">
+        <v>yara.vanlooveren@student.kdg.be</v>
+      </c>
+      <c r="C116">
+        <v>31</v>
+      </c>
+      <c r="D116">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Karlijn Schepers</v>
+      </c>
+      <c r="B117" t="str">
+        <v>karlijn.schepers@student.kdg.be</v>
+      </c>
+      <c r="C117">
+        <v>30</v>
+      </c>
+      <c r="D117">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Julie Mertens</v>
+      </c>
+      <c r="B118" t="str">
+        <v>julie.mertens@student.kdg.be</v>
+      </c>
+      <c r="C118">
+        <v>34</v>
+      </c>
+      <c r="D118">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>janice Huysmans</v>
+      </c>
+      <c r="B119" t="str">
+        <v>janice.huysmans@student.kdg.be</v>
+      </c>
+      <c r="C119">
+        <v>31</v>
+      </c>
+      <c r="D119">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Floor Vereecken</v>
+      </c>
+      <c r="B120" t="str">
+        <v>floor.vereecken@student.kdg.be</v>
+      </c>
+      <c r="C120">
+        <v>33</v>
+      </c>
+      <c r="D120">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Jolien Eysackers</v>
+      </c>
+      <c r="B121" t="str">
+        <v>jolien.eysackers@student.kdg.be</v>
+      </c>
+      <c r="C121">
+        <v>28</v>
+      </c>
+      <c r="D121">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>safae amghar</v>
+      </c>
+      <c r="B122" t="str">
+        <v>safae.amghar@student.kdg.be</v>
+      </c>
+      <c r="C122">
+        <v>28</v>
+      </c>
+      <c r="D122">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Britt Vandenbussche</v>
+      </c>
+      <c r="B123" t="str">
+        <v>britt.vandenbussche@student.kdg.be</v>
+      </c>
+      <c r="C123">
+        <v>28</v>
+      </c>
+      <c r="D123">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Chloé Van Weesenbeeck</v>
+      </c>
+      <c r="B124" t="str">
+        <v>chloe.vanweesenbeeck@student.kdg.be</v>
+      </c>
+      <c r="C124">
+        <v>30</v>
+      </c>
+      <c r="D124">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Aure Deroubaix</v>
+      </c>
+      <c r="B125" t="str">
+        <v>aure.deroubaix@student.kdg.be</v>
+      </c>
+      <c r="C125">
+        <v>32</v>
+      </c>
+      <c r="D125">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>wiam achik</v>
+      </c>
+      <c r="B126" t="str">
+        <v>wiam.achik@student.kdg.be</v>
+      </c>
+      <c r="C126">
+        <v>20</v>
+      </c>
+      <c r="D126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>aline van bouwel</v>
+      </c>
+      <c r="B127" t="str">
+        <v>aline.vanbouwel@student.kdg.be</v>
+      </c>
+      <c r="C127">
+        <v>21</v>
+      </c>
+      <c r="D127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Lexi Geys</v>
+      </c>
+      <c r="B128" t="str">
+        <v>lexi.geys@student.kdg.be</v>
+      </c>
+      <c r="C128">
+        <v>28</v>
+      </c>
+      <c r="D128">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Zehra Keklik</v>
+      </c>
+      <c r="B129" t="str">
+        <v>zehra.keklik@student.kdg.be</v>
+      </c>
+      <c r="C129">
+        <v>28</v>
+      </c>
+      <c r="D129">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Stef Thomas</v>
+      </c>
+      <c r="B130" t="str">
+        <v>stef.thomas@student.kdg.be</v>
+      </c>
+      <c r="C130">
+        <v>27</v>
+      </c>
+      <c r="D130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Paulien Van Calster</v>
+      </c>
+      <c r="B131" t="str">
+        <v>paulien.vancalster@student.kdg.be</v>
+      </c>
+      <c r="C131">
+        <v>31</v>
+      </c>
+      <c r="D131">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Esmanur Türkoglu</v>
+      </c>
+      <c r="B132" t="str">
+        <v>esmanur.turkoglu@student.kdg.be</v>
+      </c>
+      <c r="C132">
+        <v>33</v>
+      </c>
+      <c r="D132">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Mariem Baaouch</v>
+      </c>
+      <c r="B133" t="str">
+        <v>mariem.baaouch@student.kdg.be</v>
+      </c>
+      <c r="C133">
+        <v>36</v>
+      </c>
+      <c r="D133">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Demi Van den Bulck</v>
+      </c>
+      <c r="B134" t="str">
+        <v>demi.vandenbulck@student.kdg.be</v>
+      </c>
+      <c r="C134">
+        <v>31</v>
+      </c>
+      <c r="D134">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Sophie Martens</v>
+      </c>
+      <c r="B135" t="str">
+        <v>sophie.martens@student.kdg.be</v>
+      </c>
+      <c r="C135">
+        <v>27</v>
+      </c>
+      <c r="D135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Fien Galle</v>
+      </c>
+      <c r="B136" t="str">
+        <v>fien.galle@student.kdg.be</v>
+      </c>
+      <c r="C136">
+        <v>34</v>
+      </c>
+      <c r="D136">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Rania Ben Tato</v>
+      </c>
+      <c r="B137" t="str">
+        <v>rania.bentato@student.kdg.be</v>
+      </c>
+      <c r="C137">
+        <v>29</v>
+      </c>
+      <c r="D137">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Hannah Stoops</v>
+      </c>
+      <c r="B138" t="str">
+        <v>hannah.stoops@student.kdg.be</v>
+      </c>
+      <c r="C138">
+        <v>29</v>
+      </c>
+      <c r="D138">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>marieke meeus</v>
+      </c>
+      <c r="B139" t="str">
+        <v>marieke.meeus@student.kdg.be</v>
+      </c>
+      <c r="C139">
+        <v>33</v>
+      </c>
+      <c r="D139">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Anne-Laure Van Strydonck</v>
+      </c>
+      <c r="B140" t="str">
+        <v>anne-laure.vanstrydonck@student.kdg.be</v>
+      </c>
+      <c r="C140">
+        <v>17</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Stijn Symus</v>
+      </c>
+      <c r="B141" t="str">
+        <v>stijn.symus@student.kdg.be</v>
+      </c>
+      <c r="C141">
+        <v>30</v>
+      </c>
+      <c r="D141">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Liese Wouters</v>
+      </c>
+      <c r="B142" t="str">
+        <v>liese.wouters@student.kdg.be</v>
+      </c>
+      <c r="C142">
+        <v>35</v>
+      </c>
+      <c r="D142">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Sam Hostyn</v>
+      </c>
+      <c r="B143" t="str">
+        <v>sam.hostyn@student.kdg.be</v>
+      </c>
+      <c r="C143">
+        <v>33</v>
+      </c>
+      <c r="D143">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Jorunn Deleu</v>
+      </c>
+      <c r="B144" t="str">
+        <v>jorunn.deleu@student.kdg.be</v>
+      </c>
+      <c r="C144">
+        <v>34</v>
+      </c>
+      <c r="D144">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Lara van der Sanden</v>
+      </c>
+      <c r="B145" t="str">
+        <v>lara.vandersanden@student.kdg.be</v>
+      </c>
+      <c r="C145">
+        <v>30</v>
+      </c>
+      <c r="D145">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Britt Olislaegers</v>
+      </c>
+      <c r="B146" t="str">
+        <v>britt.olislaegers@student.kdg.be</v>
+      </c>
+      <c r="C146">
+        <v>31</v>
+      </c>
+      <c r="D146">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Beau Marie-Christine Heylen</v>
+      </c>
+      <c r="B147" t="str">
+        <v>beaumarie-christine.heylen@student.kdg.be</v>
+      </c>
+      <c r="C147">
+        <v>22</v>
+      </c>
+      <c r="D147">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Caro Apers</v>
+      </c>
+      <c r="B148" t="str">
+        <v>caro.apers@student.kdg.be</v>
+      </c>
+      <c r="C148">
+        <v>30</v>
+      </c>
+      <c r="D148">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Robbe Peeters</v>
+      </c>
+      <c r="B149" t="str">
+        <v>robbe.peeters.2@student.kdg.be</v>
+      </c>
+      <c r="C149">
+        <v>21</v>
+      </c>
+      <c r="D149">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Chloë Sels</v>
+      </c>
+      <c r="B150" t="str">
+        <v>chloe.sels@student.kdg.be</v>
+      </c>
+      <c r="C150">
+        <v>28</v>
+      </c>
+      <c r="D150">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Elise Peeters</v>
+      </c>
+      <c r="B151" t="str">
+        <v>elise.peeters.1@student.kdg.be</v>
+      </c>
+      <c r="C151">
+        <v>27</v>
+      </c>
+      <c r="D151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Tessa Herrera</v>
+      </c>
+      <c r="B152" t="str">
+        <v>tessa.herrera@student.kdg.be</v>
+      </c>
+      <c r="C152">
+        <v>35</v>
+      </c>
+      <c r="D152">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Celien Ennekens</v>
+      </c>
+      <c r="B153" t="str">
+        <v>celien.ennekens@student.kdg.be</v>
+      </c>
+      <c r="C153">
+        <v>32</v>
+      </c>
+      <c r="D153">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Emmeline Panis</v>
+      </c>
+      <c r="B154" t="str">
+        <v>emmeline.panis@student.kdg.be</v>
+      </c>
+      <c r="C154">
+        <v>31</v>
+      </c>
+      <c r="D154">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Floor Eyckmans</v>
+      </c>
+      <c r="B155" t="str">
+        <v>floor.eyckmans@student.kdg.be</v>
+      </c>
+      <c r="C155">
+        <v>25</v>
+      </c>
+      <c r="D155">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Hanne Jennis</v>
+      </c>
+      <c r="B156" t="str">
+        <v>hanne.jennis@student.kdg.be</v>
+      </c>
+      <c r="C156">
+        <v>27</v>
+      </c>
+      <c r="D156">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Bo Bourgois</v>
+      </c>
+      <c r="B157" t="str">
+        <v>bo.bourgois@student.kdg.be</v>
+      </c>
+      <c r="C157">
+        <v>27</v>
+      </c>
+      <c r="D157">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Charlot Van Gestel</v>
+      </c>
+      <c r="B158" t="str">
+        <v>charlot.vangestel@student.kdg.be</v>
+      </c>
+      <c r="C158">
+        <v>32</v>
+      </c>
+      <c r="D158">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Jinte Van Braband</v>
+      </c>
+      <c r="B159" t="str">
+        <v>jinte.vanbraband@student.kdg.be</v>
+      </c>
+      <c r="C159">
+        <v>28</v>
+      </c>
+      <c r="D159">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Veronica Driesen</v>
+      </c>
+      <c r="B160" t="str">
+        <v>veronica.driesen@student.kdg.be</v>
+      </c>
+      <c r="C160">
+        <v>32</v>
+      </c>
+      <c r="D160">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Lisse Van Tongerloo</v>
+      </c>
+      <c r="B161" t="str">
+        <v>lisse.vantongerloo@student.kdg.be</v>
+      </c>
+      <c r="C161">
+        <v>34</v>
+      </c>
+      <c r="D161">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Tine Embrechts</v>
+      </c>
+      <c r="B162" t="str">
+        <v>tine.embrechts@student.kdg.be</v>
+      </c>
+      <c r="C162">
+        <v>38</v>
+      </c>
+      <c r="D162">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Jonas Coone</v>
+      </c>
+      <c r="B163" t="str">
+        <v>jonas.coone@student.kdg.be</v>
+      </c>
+      <c r="C163">
+        <v>26</v>
+      </c>
+      <c r="D163">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Bo van Opstal</v>
+      </c>
+      <c r="B164" t="str">
+        <v>bo.vanopstal@student.kdg.be</v>
+      </c>
+      <c r="C164">
+        <v>26</v>
+      </c>
+      <c r="D164">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>maryama gueye</v>
+      </c>
+      <c r="B165" t="str">
+        <v>maryama.gueye@student.kdg.be</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>Bo Oostvogels</v>
+      </c>
+      <c r="B166" t="str">
+        <v>bo.oostvogels@student.kdg.be</v>
+      </c>
+      <c r="C166">
+        <v>30</v>
+      </c>
+      <c r="D166">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Erie Mullebrouck</v>
+      </c>
+      <c r="B167" t="str">
+        <v>erie.mullebrouck@student.kdg.be</v>
+      </c>
+      <c r="C167">
+        <v>25</v>
+      </c>
+      <c r="D167">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>Nina Van Hal</v>
+      </c>
+      <c r="B168" t="str">
+        <v>nina.vanhal.1@student.kdg.be</v>
+      </c>
+      <c r="C168">
+        <v>22</v>
+      </c>
+      <c r="D168">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>Lune Ingelaere</v>
+      </c>
+      <c r="B169" t="str">
+        <v>lune.ingelaere@student.kdg.be</v>
+      </c>
+      <c r="C169">
+        <v>30</v>
+      </c>
+      <c r="D169">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>mariska testelmans</v>
+      </c>
+      <c r="B170" t="str">
+        <v>mariska.testelmans@student.kdg.be</v>
+      </c>
+      <c r="C170">
+        <v>28</v>
+      </c>
+      <c r="D170">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>Ilana Martens</v>
+      </c>
+      <c r="B171" t="str">
+        <v>ilana.martens@student.kdg.be</v>
+      </c>
+      <c r="C171">
+        <v>31</v>
+      </c>
+      <c r="D171">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>Jutte Debruyn</v>
+      </c>
+      <c r="B172" t="str">
+        <v>jutte.debruyn@student.kdg.be</v>
+      </c>
+      <c r="C172">
+        <v>31</v>
+      </c>
+      <c r="D172">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Jessy Steemans</v>
+      </c>
+      <c r="B173" t="str">
+        <v>jessy.steemans@student.kdg.be</v>
+      </c>
+      <c r="C173">
+        <v>36</v>
+      </c>
+      <c r="D173">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>Alysha Verschueren</v>
+      </c>
+      <c r="B174" t="str">
+        <v>alysha.verschueren@student.kdg.be</v>
+      </c>
+      <c r="C174">
+        <v>38</v>
+      </c>
+      <c r="D174">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>Romaisae Bouassam</v>
+      </c>
+      <c r="B175" t="str">
+        <v>romaisae.bouassam@student.kdg.be</v>
+      </c>
+      <c r="C175">
+        <v>30</v>
+      </c>
+      <c r="D175">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>Janne Boons</v>
+      </c>
+      <c r="B176" t="str">
+        <v>janne.boons@student.kdg.be</v>
+      </c>
+      <c r="C176">
+        <v>33</v>
+      </c>
+      <c r="D176">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Yana De Pré</v>
+      </c>
+      <c r="B177" t="str">
+        <v>yana.depre@student.kdg.be</v>
+      </c>
+      <c r="C177">
+        <v>31</v>
+      </c>
+      <c r="D177">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>Joyce van den Broek</v>
+      </c>
+      <c r="B178" t="str">
+        <v>joyce.vandenbroek@student.kdg.be</v>
+      </c>
+      <c r="C178">
+        <v>33</v>
+      </c>
+      <c r="D178">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>Alexandra Geukens</v>
+      </c>
+      <c r="B179" t="str">
+        <v>alexandra.geukens@student.kdg.be</v>
+      </c>
+      <c r="C179">
+        <v>36</v>
+      </c>
+      <c r="D179">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>Taciane Dos Santos</v>
+      </c>
+      <c r="B180" t="str">
+        <v>taciane.dossantos@student.kdg.be</v>
+      </c>
+      <c r="C180">
+        <v>29</v>
+      </c>
+      <c r="D180">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Tara De Becker</v>
+      </c>
+      <c r="B181" t="str">
+        <v>tara.debecker@student.kdg.be</v>
+      </c>
+      <c r="C181">
+        <v>30</v>
+      </c>
+      <c r="D181">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>Bo Van Reusel</v>
+      </c>
+      <c r="B182" t="str">
+        <v>bo.vanreusel@student.kdg.be</v>
+      </c>
+      <c r="C182">
+        <v>35</v>
+      </c>
+      <c r="D182">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>Yara Konings</v>
+      </c>
+      <c r="B183" t="str">
+        <v>yara.konings@student.kdg.be</v>
+      </c>
+      <c r="C183">
+        <v>28</v>
+      </c>
+      <c r="D183">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>Manon Declercq</v>
+      </c>
+      <c r="B184" t="str">
+        <v>manon.declercq@student.kdg.be</v>
+      </c>
+      <c r="C184">
+        <v>28</v>
+      </c>
+      <c r="D184">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>Fleur Faber</v>
+      </c>
+      <c r="B185" t="str">
+        <v>fleur.faber@student.kdg.be</v>
+      </c>
+      <c r="C185">
+        <v>33</v>
+      </c>
+      <c r="D185">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>Asena Ayalp</v>
+      </c>
+      <c r="B186" t="str">
+        <v>asena.ayalp@student.kdg.be</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>Xenia Van der Wee</v>
+      </c>
+      <c r="B187" t="str">
+        <v>xenia.vanderwee@student.kdg.be</v>
+      </c>
+      <c r="C187">
+        <v>34</v>
+      </c>
+      <c r="D187">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Karo Peeters</v>
+      </c>
+      <c r="B188" t="str">
+        <v>karo.peeters@student.kdg.be</v>
+      </c>
+      <c r="C188">
+        <v>35</v>
+      </c>
+      <c r="D188">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>chantal schoormans</v>
+      </c>
+      <c r="B189" t="str">
+        <v>chantal.schoormans@student.kdg.be</v>
+      </c>
+      <c r="C189">
+        <v>30</v>
+      </c>
+      <c r="D189">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>Celine Verbruggen</v>
+      </c>
+      <c r="B190" t="str">
+        <v>celine.verbruggen@student.kdg.be</v>
+      </c>
+      <c r="C190">
+        <v>24</v>
+      </c>
+      <c r="D190">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>Lynn Van de Venne</v>
+      </c>
+      <c r="B191" t="str">
+        <v>lynn.vandevenne@student.kdg.be</v>
+      </c>
+      <c r="C191">
+        <v>31</v>
+      </c>
+      <c r="D191">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>Fien De Vlieger</v>
+      </c>
+      <c r="B192" t="str">
+        <v>fien.devlieger@student.kdg.be</v>
+      </c>
+      <c r="C192">
+        <v>37</v>
+      </c>
+      <c r="D192">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>Nymke De Coster</v>
+      </c>
+      <c r="B193" t="str">
+        <v>nymke.decoster@student.kdg.be</v>
+      </c>
+      <c r="C193">
+        <v>31</v>
+      </c>
+      <c r="D193">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>Chirine Bougria</v>
+      </c>
+      <c r="B194" t="str">
+        <v>chirine.bougria@student.kdg.be</v>
+      </c>
+      <c r="C194">
+        <v>29</v>
+      </c>
+      <c r="D194">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>amber rossaert</v>
+      </c>
+      <c r="B195" t="str">
+        <v>amber.rossaert@student.kdg.be</v>
+      </c>
+      <c r="C195">
+        <v>28</v>
+      </c>
+      <c r="D195">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>Caro Sandy F Cleys</v>
+      </c>
+      <c r="B196" t="str">
+        <v>carosandyf.cleys@student.kdg.be</v>
+      </c>
+      <c r="C196">
+        <v>35</v>
+      </c>
+      <c r="D196">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>Jill Perremans</v>
+      </c>
+      <c r="B197" t="str">
+        <v>jill.perremans@student.kdg.be</v>
+      </c>
+      <c r="C197">
+        <v>34</v>
+      </c>
+      <c r="D197">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Thomas Samsom</v>
+      </c>
+      <c r="B198" t="str">
+        <v>thomas.samsom@student.kdg.be</v>
+      </c>
+      <c r="C198">
+        <v>33</v>
+      </c>
+      <c r="D198">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>Fiene Van Bael</v>
+      </c>
+      <c r="B199" t="str">
+        <v>fiene.vanbael@student.kdg.be</v>
+      </c>
+      <c r="C199">
+        <v>31</v>
+      </c>
+      <c r="D199">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Amber De Wispelaere</v>
+      </c>
+      <c r="B200" t="str">
+        <v>amber.dewispelaere@student.kdg.be</v>
+      </c>
+      <c r="C200">
+        <v>26</v>
+      </c>
+      <c r="D200">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>Sevde Ozdemir</v>
+      </c>
+      <c r="B201" t="str">
+        <v>sevde.ozdemir@student.kdg.be</v>
+      </c>
+      <c r="C201">
+        <v>28</v>
+      </c>
+      <c r="D201">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>Thijs Megens</v>
+      </c>
+      <c r="B202" t="str">
+        <v>thijs.megens@student.kdg.be</v>
+      </c>
+      <c r="C202">
+        <v>34</v>
+      </c>
+      <c r="D202">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>Charlotte Casier</v>
+      </c>
+      <c r="B203" t="str">
+        <v>charlotte.casier@student.kdg.be</v>
+      </c>
+      <c r="C203">
+        <v>26</v>
+      </c>
+      <c r="D203">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>Ammeke Van Loock</v>
+      </c>
+      <c r="B204" t="str">
+        <v>ammeke.vanloock@student.kdg.be</v>
+      </c>
+      <c r="C204">
+        <v>25</v>
+      </c>
+      <c r="D204">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>Fay De Veuster</v>
+      </c>
+      <c r="B205" t="str">
+        <v>fay.deveuster@student.kdg.be</v>
+      </c>
+      <c r="C205">
+        <v>29</v>
+      </c>
+      <c r="D205">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>Emely Van Ham</v>
+      </c>
+      <c r="B206" t="str">
+        <v>emely.vanham@student.kdg.be</v>
+      </c>
+      <c r="C206">
+        <v>34</v>
+      </c>
+      <c r="D206">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>Phébe Melotte</v>
+      </c>
+      <c r="B207" t="str">
+        <v>phebe.melotte@student.kdg.be</v>
+      </c>
+      <c r="C207">
+        <v>25</v>
+      </c>
+      <c r="D207">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>Jade Van Gelder</v>
+      </c>
+      <c r="B208" t="str">
+        <v>jade.vangelder@student.kdg.be</v>
+      </c>
+      <c r="C208">
+        <v>30</v>
+      </c>
+      <c r="D208">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>Indi Van den Eynden</v>
+      </c>
+      <c r="B209" t="str">
+        <v>indi.vandeneynden@student.kdg.be</v>
+      </c>
+      <c r="C209">
+        <v>31</v>
+      </c>
+      <c r="D209">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>Caro Lembrechts</v>
+      </c>
+      <c r="B210" t="str">
+        <v>caro.lembrechts@student.kdg.be</v>
+      </c>
+      <c r="C210">
+        <v>33</v>
+      </c>
+      <c r="D210">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>Liesl Braem</v>
+      </c>
+      <c r="B211" t="str">
+        <v>liesl.braem@student.kdg.be</v>
+      </c>
+      <c r="C211">
+        <v>28</v>
+      </c>
+      <c r="D211">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>Yoni Van de Velde</v>
+      </c>
+      <c r="B212" t="str">
+        <v>yoni.vandevelde@student.kdg.be</v>
+      </c>
+      <c r="C212">
+        <v>35</v>
+      </c>
+      <c r="D212">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>Zino Verelst</v>
+      </c>
+      <c r="B213" t="str">
+        <v>zino.verelst@student.kdg.be</v>
+      </c>
+      <c r="C213">
+        <v>26</v>
+      </c>
+      <c r="D213">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>Jana Croons</v>
+      </c>
+      <c r="B214" t="str">
+        <v>jana.croons@student.kdg.be</v>
+      </c>
+      <c r="C214">
+        <v>22</v>
+      </c>
+      <c r="D214">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>Gwen Van Hasselt</v>
+      </c>
+      <c r="B215" t="str">
+        <v>gwen.vanhasselt@student.kdg.be</v>
+      </c>
+      <c r="C215">
+        <v>24</v>
+      </c>
+      <c r="D215">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>Michelle Berkvens</v>
+      </c>
+      <c r="B216" t="str">
+        <v>michelle.berkvens@student.kdg.be</v>
+      </c>
+      <c r="C216">
+        <v>35</v>
+      </c>
+      <c r="D216">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>Saartje Van Aken</v>
+      </c>
+      <c r="B217" t="str">
+        <v>saartje.vanaken@student.kdg.be</v>
+      </c>
+      <c r="C217">
+        <v>32</v>
+      </c>
+      <c r="D217">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>Amber Tollet</v>
+      </c>
+      <c r="B218" t="str">
+        <v>amber.tollet@student.kdg.be</v>
+      </c>
+      <c r="C218">
+        <v>33</v>
+      </c>
+      <c r="D218">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>Laura Van Tielraden</v>
+      </c>
+      <c r="B219" t="str">
+        <v>laura.vantielraden@student.kdg.be</v>
+      </c>
+      <c r="C219">
+        <v>31</v>
+      </c>
+      <c r="D219">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>Merita Mustafovski</v>
+      </c>
+      <c r="B220" t="str">
+        <v>merita.mustafovski@student.kdg.be</v>
+      </c>
+      <c r="C220">
+        <v>31</v>
+      </c>
+      <c r="D220">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>Lotte Leysen</v>
+      </c>
+      <c r="B221" t="str">
+        <v>lotte.leysen@student.kdg.be</v>
+      </c>
+      <c r="C221">
+        <v>32</v>
+      </c>
+      <c r="D221">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>Britt Peeters</v>
+      </c>
+      <c r="B222" t="str">
+        <v>britt.peeters@student.kdg.be</v>
+      </c>
+      <c r="C222">
+        <v>24</v>
+      </c>
+      <c r="D222">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>Caitlin De Wit</v>
+      </c>
+      <c r="B223" t="str">
+        <v>caitlin.dewit.1@student.kdg.be</v>
+      </c>
+      <c r="C223">
+        <v>36</v>
+      </c>
+      <c r="D223">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>Eline Wassenaar</v>
+      </c>
+      <c r="B224" t="str">
+        <v>eline.wassenaar@student.kdg.be</v>
+      </c>
+      <c r="C224">
+        <v>30</v>
+      </c>
+      <c r="D224">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>Lotte Melis</v>
+      </c>
+      <c r="B225" t="str">
+        <v>lotte.melis@student.kdg.be</v>
+      </c>
+      <c r="C225">
+        <v>33</v>
+      </c>
+      <c r="D225">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>Jasper Van Baekel</v>
+      </c>
+      <c r="B226" t="str">
+        <v>jasper.vanbaekel@student.kdg.be</v>
+      </c>
+      <c r="C226">
+        <v>22</v>
+      </c>
+      <c r="D226">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>Robin D'hoore</v>
+      </c>
+      <c r="B227" t="str">
+        <v>robin.dhoore@student.kdg.be</v>
+      </c>
+      <c r="C227">
+        <v>20</v>
+      </c>
+      <c r="D227">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>Hanne Bosmans</v>
+      </c>
+      <c r="B228" t="str">
+        <v>hanne.bosmans.1@student.kdg.be</v>
+      </c>
+      <c r="C228">
+        <v>30</v>
+      </c>
+      <c r="D228">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>Tine Jan E Adant</v>
+      </c>
+      <c r="B229" t="str">
+        <v>tinejane.adant@student.kdg.be</v>
+      </c>
+      <c r="C229">
+        <v>31</v>
+      </c>
+      <c r="D229">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>Julie Geukens</v>
+      </c>
+      <c r="B230" t="str">
+        <v>julie.geukens@student.kdg.be</v>
+      </c>
+      <c r="C230">
+        <v>32</v>
+      </c>
+      <c r="D230">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>Marie Meynendonckx</v>
+      </c>
+      <c r="B231" t="str">
+        <v>marie.meynendonckx@student.kdg.be</v>
+      </c>
+      <c r="C231">
+        <v>25</v>
+      </c>
+      <c r="D231">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>Robin Vanderstappen</v>
+      </c>
+      <c r="B232" t="str">
+        <v>robin.vanderstappen@student.kdg.be</v>
+      </c>
+      <c r="C232">
+        <v>29</v>
+      </c>
+      <c r="D232">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>Britt Simons</v>
+      </c>
+      <c r="B233" t="str">
+        <v>britt.simons@student.kdg.be</v>
+      </c>
+      <c r="C233">
+        <v>31</v>
+      </c>
+      <c r="D233">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>Lynn Kockx</v>
+      </c>
+      <c r="B234" t="str">
+        <v>lynn.kockx@student.kdg.be</v>
+      </c>
+      <c r="C234">
+        <v>34</v>
+      </c>
+      <c r="D234">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>Amber Aerts</v>
+      </c>
+      <c r="B235" t="str">
+        <v>amber.aerts.1@student.kdg.be</v>
+      </c>
+      <c r="C235">
+        <v>35</v>
+      </c>
+      <c r="D235">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>amandine martin</v>
+      </c>
+      <c r="B236" t="str">
+        <v>amandine.martin@student.kdg.be</v>
+      </c>
+      <c r="C236">
+        <v>23</v>
+      </c>
+      <c r="D236">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>Hanne Verheyen</v>
+      </c>
+      <c r="B237" t="str">
+        <v>hanne.verheyen.1@student.kdg.be</v>
+      </c>
+      <c r="C237">
+        <v>33</v>
+      </c>
+      <c r="D237">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>Britt Peremans</v>
+      </c>
+      <c r="B238" t="str">
+        <v>britt.peremans@student.kdg.be</v>
+      </c>
+      <c r="C238">
+        <v>22</v>
+      </c>
+      <c r="D238">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>Lisa Batta</v>
+      </c>
+      <c r="B239" t="str">
+        <v>lisa.batta@student.kdg.be</v>
+      </c>
+      <c r="C239">
+        <v>25</v>
+      </c>
+      <c r="D239">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>Silke Bosmans</v>
+      </c>
+      <c r="B240" t="str">
+        <v>silke.bosmans@student.kdg.be</v>
+      </c>
+      <c r="C240">
+        <v>26</v>
+      </c>
+      <c r="D240">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>Charlotte Dekens</v>
+      </c>
+      <c r="B241" t="str">
+        <v>charlotte.dekens@student.kdg.be</v>
+      </c>
+      <c r="C241">
+        <v>29</v>
+      </c>
+      <c r="D241">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>Jonas Resseler</v>
+      </c>
+      <c r="B242" t="str">
+        <v>jonas.resseler@student.kdg.be</v>
+      </c>
+      <c r="C242">
+        <v>7</v>
+      </c>
+      <c r="D242">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>Shelsey Debeuf</v>
+      </c>
+      <c r="B243" t="str">
+        <v>shelsey.debeuf@student.kdg.be</v>
+      </c>
+      <c r="C243">
+        <v>29</v>
+      </c>
+      <c r="D243">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>Tirza Noordam</v>
+      </c>
+      <c r="B244" t="str">
+        <v>tirza.noordam@student.kdg.be</v>
+      </c>
+      <c r="C244">
+        <v>29</v>
+      </c>
+      <c r="D244">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>Lamyae Boudellaha</v>
+      </c>
+      <c r="B245" t="str">
+        <v>lamyae.boudellaha@student.kdg.be</v>
+      </c>
+      <c r="C245">
+        <v>5</v>
+      </c>
+      <c r="D245">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>Veronique Vanderstraeten</v>
+      </c>
+      <c r="B246" t="str">
+        <v>veronique.vanderstraeten@student.kdg.be</v>
+      </c>
+      <c r="C246">
+        <v>30</v>
+      </c>
+      <c r="D246">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>Louise De Kinderen</v>
+      </c>
+      <c r="B247" t="str">
+        <v>louise.dekinderen@student.kdg.be</v>
+      </c>
+      <c r="C247">
+        <v>31</v>
+      </c>
+      <c r="D247">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>Lore Baeten</v>
+      </c>
+      <c r="B248" t="str">
+        <v>lore.baeten@student.kdg.be</v>
+      </c>
+      <c r="C248">
+        <v>31</v>
+      </c>
+      <c r="D248">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>Merel Calle</v>
+      </c>
+      <c r="B249" t="str">
+        <v>merel.calle@student.kdg.be</v>
+      </c>
+      <c r="C249">
+        <v>28</v>
+      </c>
+      <c r="D249">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>Yentl Serwy</v>
+      </c>
+      <c r="B250" t="str">
+        <v>yentl.serwy@student.kdg.be</v>
+      </c>
+      <c r="C250">
+        <v>36</v>
+      </c>
+      <c r="D250">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>Eva Janssens</v>
+      </c>
+      <c r="B251" t="str">
+        <v>eva.janssens.1@student.kdg.be</v>
+      </c>
+      <c r="C251">
+        <v>30</v>
+      </c>
+      <c r="D251">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>Jana Saint-Pol</v>
+      </c>
+      <c r="B252" t="str">
+        <v>jana.saint-pol@student.kdg.be</v>
+      </c>
+      <c r="C252">
+        <v>30</v>
+      </c>
+      <c r="D252">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>Yoni Smidts</v>
+      </c>
+      <c r="B253" t="str">
+        <v>yoni.smidts@student.kdg.be</v>
+      </c>
+      <c r="C253">
+        <v>30</v>
+      </c>
+      <c r="D253">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>Lotte Feusels</v>
+      </c>
+      <c r="B254" t="str">
+        <v>lotte.feusels@student.kdg.be</v>
+      </c>
+      <c r="C254">
+        <v>30</v>
+      </c>
+      <c r="D254">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>Rhina Van Goethem</v>
+      </c>
+      <c r="B255" t="str">
+        <v>rhina.vangoethem@student.kdg.be</v>
+      </c>
+      <c r="C255">
+        <v>29</v>
+      </c>
+      <c r="D255">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>Janne Baerts</v>
+      </c>
+      <c r="B256" t="str">
+        <v>janne.baerts@student.kdg.be</v>
+      </c>
+      <c r="C256">
+        <v>34</v>
+      </c>
+      <c r="D256">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>Karen Van Dyck</v>
+      </c>
+      <c r="B257" t="str">
+        <v>karen.vandyck@student.kdg.be</v>
+      </c>
+      <c r="C257">
+        <v>36</v>
+      </c>
+      <c r="D257">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>Celine Delcourte</v>
+      </c>
+      <c r="B258" t="str">
+        <v>celine.delcourte@student.kdg.be</v>
+      </c>
+      <c r="C258">
+        <v>34</v>
+      </c>
+      <c r="D258">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>Yasmina Sekaki</v>
+      </c>
+      <c r="B259" t="str">
+        <v>yasmina.sekaki@student.kdg.be</v>
+      </c>
+      <c r="C259">
+        <v>35</v>
+      </c>
+      <c r="D259">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>Soufyan Yakoubi</v>
+      </c>
+      <c r="B260" t="str">
+        <v>soufyan.yakoubi@student.kdg.be</v>
+      </c>
+      <c r="C260">
+        <v>22</v>
+      </c>
+      <c r="D260">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>Jade Dalemans</v>
+      </c>
+      <c r="B261" t="str">
+        <v>jade.dalemans@student.kdg.be</v>
+      </c>
+      <c r="C261">
+        <v>34</v>
+      </c>
+      <c r="D261">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>Floor Van den berghe</v>
+      </c>
+      <c r="B262" t="str">
+        <v>floor.vandenberghe@student.kdg.be</v>
+      </c>
+      <c r="C262">
+        <v>31</v>
+      </c>
+      <c r="D262">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>Ines Vanderhaeghe</v>
+      </c>
+      <c r="B263" t="str">
+        <v>ines.vanderhaeghe@student.kdg.be</v>
+      </c>
+      <c r="C263">
+        <v>32</v>
+      </c>
+      <c r="D263">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>Rosanne Maes</v>
+      </c>
+      <c r="B264" t="str">
+        <v>rosanne.maes@student.kdg.be</v>
+      </c>
+      <c r="C264">
+        <v>33</v>
+      </c>
+      <c r="D264">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>Esther Van Hemelrijk</v>
+      </c>
+      <c r="B265" t="str">
+        <v>esther.vanhemelrijk@student.kdg.be</v>
+      </c>
+      <c r="C265">
+        <v>25</v>
+      </c>
+      <c r="D265">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>Maarten Jaspers</v>
+      </c>
+      <c r="B266" t="str">
+        <v>maarten.jaspers@student.kdg.be</v>
+      </c>
+      <c r="C266">
+        <v>29</v>
+      </c>
+      <c r="D266">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>Kirsten Van Hoof</v>
+      </c>
+      <c r="B267" t="str">
+        <v>kirsten.vanhoof@student.kdg.be</v>
+      </c>
+      <c r="C267">
+        <v>35</v>
+      </c>
+      <c r="D267">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>Tess Van Loy</v>
+      </c>
+      <c r="B268" t="str">
+        <v>tess.vanloy@student.kdg.be</v>
+      </c>
+      <c r="C268">
+        <v>31</v>
+      </c>
+      <c r="D268">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>yarne De Meutter</v>
+      </c>
+      <c r="B269" t="str">
+        <v>yarne.demeutter@student.kdg.be</v>
+      </c>
+      <c r="C269">
+        <v>31</v>
+      </c>
+      <c r="D269">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>Maud Siemons</v>
+      </c>
+      <c r="B270" t="str">
+        <v>maud.siemons@student.kdg.be</v>
+      </c>
+      <c r="C270">
+        <v>28</v>
+      </c>
+      <c r="D270">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>Kaat Theuwissen</v>
+      </c>
+      <c r="B271" t="str">
+        <v>kaat.theuwissen@student.kdg.be</v>
+      </c>
+      <c r="C271">
+        <v>28</v>
+      </c>
+      <c r="D271">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>Dorien Van Baelen</v>
+      </c>
+      <c r="B272" t="str">
+        <v>dorien.vanbaelen@student.kdg.be</v>
+      </c>
+      <c r="C272">
+        <v>32</v>
+      </c>
+      <c r="D272">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>Majlen De Kepper</v>
+      </c>
+      <c r="B273" t="str">
+        <v>majlen.dekepper@student.kdg.be</v>
+      </c>
+      <c r="C273">
+        <v>30</v>
+      </c>
+      <c r="D273">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>Lamia Ettalhaoui</v>
+      </c>
+      <c r="B274" t="str">
+        <v>lamia.ettalhaoui@student.kdg.be</v>
+      </c>
+      <c r="C274">
+        <v>27</v>
+      </c>
+      <c r="D274">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>Sofie De Schepper</v>
+      </c>
+      <c r="B275" t="str">
+        <v>sofie.deschepper@student.kdg.be</v>
+      </c>
+      <c r="C275">
+        <v>39</v>
+      </c>
+      <c r="D275">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>Cynthia Van Riet</v>
+      </c>
+      <c r="B276" t="str">
+        <v>cynthia.vanriet@student.kdg.be</v>
+      </c>
+      <c r="C276">
+        <v>18</v>
+      </c>
+      <c r="D276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>Anne-Sophie De Ceulaerde</v>
+      </c>
+      <c r="B277" t="str">
+        <v>anne-sophie.deceulaerde@student.kdg.be</v>
+      </c>
+      <c r="C277">
+        <v>33</v>
+      </c>
+      <c r="D277">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>Lotte Van Dyck</v>
+      </c>
+      <c r="B278" t="str">
+        <v>lotte.vandyck@student.kdg.be</v>
+      </c>
+      <c r="C278">
+        <v>36</v>
+      </c>
+      <c r="D278">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>Britt Craeghs</v>
+      </c>
+      <c r="B279" t="str">
+        <v>britt.craeghs@student.kdg.be</v>
+      </c>
+      <c r="C279">
+        <v>32</v>
+      </c>
+      <c r="D279">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>Uschi Segers</v>
+      </c>
+      <c r="B280" t="str">
+        <v>uschi.segers@student.kdg.be</v>
+      </c>
+      <c r="C280">
+        <v>19</v>
+      </c>
+      <c r="D280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>Xana Raats</v>
+      </c>
+      <c r="B281" t="str">
+        <v>xana.raats@student.kdg.be</v>
+      </c>
+      <c r="C281">
+        <v>32</v>
+      </c>
+      <c r="D281">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>Katoo Nestor</v>
+      </c>
+      <c r="B282" t="str">
+        <v>katoo.nestor@student.kdg.be</v>
+      </c>
+      <c r="C282">
+        <v>23</v>
+      </c>
+      <c r="D282">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>Elke Bastanie</v>
+      </c>
+      <c r="B283" t="str">
+        <v>elke.bastanie@student.kdg.be</v>
+      </c>
+      <c r="C283">
+        <v>33</v>
+      </c>
+      <c r="D283">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>Irja Truyen</v>
+      </c>
+      <c r="B284" t="str">
+        <v>irja.truyen@student.kdg.be</v>
+      </c>
+      <c r="C284">
+        <v>32</v>
+      </c>
+      <c r="D284">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>Jade Lenaerts</v>
+      </c>
+      <c r="B285" t="str">
+        <v>jade.lenaerts@student.kdg.be</v>
+      </c>
+      <c r="C285">
+        <v>35</v>
+      </c>
+      <c r="D285">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>David Willems</v>
+      </c>
+      <c r="B286" t="str">
+        <v>david.willems@student.kdg.be</v>
+      </c>
+      <c r="C286">
+        <v>29</v>
+      </c>
+      <c r="D286">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>Margot Fabes</v>
+      </c>
+      <c r="B287" t="str">
+        <v>margot.fabes@student.kdg.be</v>
+      </c>
+      <c r="C287">
+        <v>36</v>
+      </c>
+      <c r="D287">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>Lenka Van Landeghem</v>
+      </c>
+      <c r="B288" t="str">
+        <v>lenka.vanlandeghem@student.kdg.be</v>
+      </c>
+      <c r="C288">
+        <v>28</v>
+      </c>
+      <c r="D288">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>Shari Jacobs</v>
+      </c>
+      <c r="B289" t="str">
+        <v>shari.jacobs.1@student.kdg.be</v>
+      </c>
+      <c r="C289">
+        <v>30</v>
+      </c>
+      <c r="D289">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>Sam Swinnen</v>
+      </c>
+      <c r="B290" t="str">
+        <v>sam.swinnen@student.kdg.be</v>
+      </c>
+      <c r="C290">
+        <v>36</v>
+      </c>
+      <c r="D290">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>Feline Stroobants</v>
+      </c>
+      <c r="B291" t="str">
+        <v>feline.stroobants@student.kdg.be</v>
+      </c>
+      <c r="C291">
+        <v>32</v>
+      </c>
+      <c r="D291">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>Laura Van Es</v>
+      </c>
+      <c r="B292" t="str">
+        <v>laura.vanes@student.kdg.be</v>
+      </c>
+      <c r="C292">
+        <v>35</v>
+      </c>
+      <c r="D292">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>Igna van Ginneken</v>
+      </c>
+      <c r="B293" t="str">
+        <v>igna.vanginneken@student.kdg.be</v>
+      </c>
+      <c r="C293">
+        <v>33</v>
+      </c>
+      <c r="D293">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>Margo Verhoeven</v>
+      </c>
+      <c r="B294" t="str">
+        <v>margo.verhoeven@student.kdg.be</v>
+      </c>
+      <c r="C294">
+        <v>31</v>
+      </c>
+      <c r="D294">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>Annelies Vangenechten</v>
+      </c>
+      <c r="B295" t="str">
+        <v>annelies.vangenechten@student.kdg.be</v>
+      </c>
+      <c r="C295">
+        <v>34</v>
+      </c>
+      <c r="D295">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>Justine Marsily</v>
+      </c>
+      <c r="B296" t="str">
+        <v>justine.marsily@student.kdg.be</v>
+      </c>
+      <c r="C296">
+        <v>34</v>
+      </c>
+      <c r="D296">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>Aline Villarin</v>
+      </c>
+      <c r="B297" t="str">
+        <v>aline.villarin@student.kdg.be</v>
+      </c>
+      <c r="C297">
+        <v>38</v>
+      </c>
+      <c r="D297">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>Nele Fagot</v>
+      </c>
+      <c r="B298" t="str">
+        <v>nele.fagot@student.kdg.be</v>
+      </c>
+      <c r="C298">
+        <v>34</v>
+      </c>
+      <c r="D298">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>Hanna De Bruyne</v>
+      </c>
+      <c r="B299" t="str">
+        <v>hanna.debruyne@student.kdg.be</v>
+      </c>
+      <c r="C299">
+        <v>31</v>
+      </c>
+      <c r="D299">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>Nina De Clercq</v>
+      </c>
+      <c r="B300" t="str">
+        <v>nina.declercq@student.kdg.be</v>
+      </c>
+      <c r="C300">
+        <v>31</v>
+      </c>
+      <c r="D300">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>Daphné De Bauw</v>
+      </c>
+      <c r="B301" t="str">
+        <v>daphne.debauw@student.kdg.be</v>
+      </c>
+      <c r="C301">
+        <v>28</v>
+      </c>
+      <c r="D301">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>Marie Verhoeven</v>
+      </c>
+      <c r="B302" t="str">
+        <v>marie.verhoeven@student.kdg.be</v>
+      </c>
+      <c r="C302">
+        <v>30</v>
+      </c>
+      <c r="D302">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>Maja Van Beers</v>
+      </c>
+      <c r="B303" t="str">
+        <v>maja.vanbeers@student.kdg.be</v>
+      </c>
+      <c r="C303">
+        <v>37</v>
+      </c>
+      <c r="D303">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>Lotte De Paepe</v>
+      </c>
+      <c r="B304" t="str">
+        <v>lotte.depaepe@student.kdg.be</v>
+      </c>
+      <c r="C304">
+        <v>36</v>
+      </c>
+      <c r="D304">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>Marie Geens</v>
+      </c>
+      <c r="B305" t="str">
+        <v>marie.geens@student.kdg.be</v>
+      </c>
+      <c r="C305">
+        <v>26</v>
+      </c>
+      <c r="D305">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>Naomy De Muylder</v>
+      </c>
+      <c r="B306" t="str">
+        <v>naomy.demuylder@student.kdg.be</v>
+      </c>
+      <c r="C306">
+        <v>30</v>
+      </c>
+      <c r="D306">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>Amber Peeters</v>
+      </c>
+      <c r="B307" t="str">
+        <v>amber.peeters.2@student.kdg.be</v>
+      </c>
+      <c r="C307">
+        <v>17</v>
+      </c>
+      <c r="D307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>Emmanuelle Eekhout</v>
+      </c>
+      <c r="B308" t="str">
+        <v>emmanuelle.eekhout@student.kdg.be</v>
+      </c>
+      <c r="C308">
+        <v>22</v>
+      </c>
+      <c r="D308">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>lauren iliegems</v>
+      </c>
+      <c r="B309" t="str">
+        <v>lauren.iliegems@student.kdg.be</v>
+      </c>
+      <c r="C309">
+        <v>36</v>
+      </c>
+      <c r="D309">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>Jitse Cammaer</v>
+      </c>
+      <c r="B310" t="str">
+        <v>jitse.cammaer@student.kdg.be</v>
+      </c>
+      <c r="C310">
+        <v>38</v>
+      </c>
+      <c r="D310">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>Amber Luyts</v>
+      </c>
+      <c r="B311" t="str">
+        <v>amber.luyts@student.kdg.be</v>
+      </c>
+      <c r="C311">
+        <v>37</v>
+      </c>
+      <c r="D311">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>Bauke Verhoeven</v>
+      </c>
+      <c r="B312" t="str">
+        <v>bauke.verhoeven@student.kdg.be</v>
+      </c>
+      <c r="C312">
+        <v>32</v>
+      </c>
+      <c r="D312">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>Axel Gautier</v>
+      </c>
+      <c r="B313" t="str">
+        <v>axel.gautier@student.kdg.be</v>
+      </c>
+      <c r="C313">
+        <v>26</v>
+      </c>
+      <c r="D313">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>manou sas</v>
+      </c>
+      <c r="B314" t="str">
+        <v>manou.sas@student.kdg.be</v>
+      </c>
+      <c r="C314">
+        <v>30</v>
+      </c>
+      <c r="D314">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>Chanty Rosseels</v>
+      </c>
+      <c r="B315" t="str">
+        <v>chanty.rosseels@student.kdg.be</v>
+      </c>
+      <c r="C315">
+        <v>24</v>
+      </c>
+      <c r="D315">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>yasmina zaryouhi</v>
+      </c>
+      <c r="B316" t="str">
+        <v>yasmina.zaryouhi@student.kdg.be</v>
+      </c>
+      <c r="C316">
+        <v>34</v>
+      </c>
+      <c r="D316">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>Sidney Van Ravenstyn</v>
+      </c>
+      <c r="B317" t="str">
+        <v>sidney.vanravenstyn@student.kdg.be</v>
+      </c>
+      <c r="C317">
+        <v>32</v>
+      </c>
+      <c r="D317">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>Helen Davis</v>
+      </c>
+      <c r="B318" t="str">
+        <v>helen.davis@student.kdg.be</v>
+      </c>
+      <c r="C318">
+        <v>22</v>
+      </c>
+      <c r="D318">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>Tara Schraepen</v>
+      </c>
+      <c r="B319" t="str">
+        <v>tara.schraepen@student.kdg.be</v>
+      </c>
+      <c r="C319">
+        <v>27</v>
+      </c>
+      <c r="D319">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>Lana Felix</v>
+      </c>
+      <c r="B320" t="str">
+        <v>lana.felix@student.kdg.be</v>
+      </c>
+      <c r="C320">
+        <v>32</v>
+      </c>
+      <c r="D320">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>Britney Kennis</v>
+      </c>
+      <c r="B321" t="str">
+        <v>britney.kennis@student.kdg.be</v>
+      </c>
+      <c r="C321">
+        <v>16</v>
+      </c>
+      <c r="D321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>Majlen Mattheessens</v>
+      </c>
+      <c r="B322" t="str">
+        <v>majlen.mattheessens@student.kdg.be</v>
+      </c>
+      <c r="C322">
+        <v>31</v>
+      </c>
+      <c r="D322">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>Dries Van Deun</v>
+      </c>
+      <c r="B323" t="str">
+        <v>dries.vandeun@student.kdg.be</v>
+      </c>
+      <c r="C323">
+        <v>23</v>
+      </c>
+      <c r="D323">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>Lisa Geens</v>
+      </c>
+      <c r="B324" t="str">
+        <v>lisa.geens@student.kdg.be</v>
+      </c>
+      <c r="C324">
+        <v>29</v>
+      </c>
+      <c r="D324">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>Sophie Braem</v>
+      </c>
+      <c r="B325" t="str">
+        <v>sophie.braem@student.kdg.be</v>
+      </c>
+      <c r="C325">
+        <v>19</v>
+      </c>
+      <c r="D325">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>Dagmar Mortelmans</v>
+      </c>
+      <c r="B326" t="str">
+        <v>dagmar.mortelmans@student.kdg.be</v>
+      </c>
+      <c r="C326">
+        <v>30</v>
+      </c>
+      <c r="D326">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>imane yandouzi</v>
+      </c>
+      <c r="B327" t="str">
+        <v>imane.yandouzi@student.kdg.be</v>
+      </c>
+      <c r="C327">
+        <v>30</v>
+      </c>
+      <c r="D327">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>Laura De Cock</v>
+      </c>
+      <c r="B328" t="str">
+        <v>laura.decock@student.kdg.be</v>
+      </c>
+      <c r="C328">
+        <v>19</v>
+      </c>
+      <c r="D328">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>Gloria Janssens</v>
+      </c>
+      <c r="B329" t="str">
+        <v>gloria.janssens@student.kdg.be</v>
+      </c>
+      <c r="C329">
+        <v>30</v>
+      </c>
+      <c r="D329">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>Iris Kavanoz</v>
+      </c>
+      <c r="B330" t="str">
+        <v>iris.kavanoz@student.kdg.be</v>
+      </c>
+      <c r="C330">
+        <v>32</v>
+      </c>
+      <c r="D330">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>Zinne Curinckx</v>
+      </c>
+      <c r="B331" t="str">
+        <v>zinne.curinckx@student.kdg.be</v>
+      </c>
+      <c r="C331">
+        <v>28</v>
+      </c>
+      <c r="D331">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>Melissa Van Doninck</v>
+      </c>
+      <c r="B332" t="str">
+        <v>melissa.vandoninck@student.kdg.be</v>
+      </c>
+      <c r="C332">
+        <v>35</v>
+      </c>
+      <c r="D332">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>Lars Hermans</v>
+      </c>
+      <c r="B333" t="str">
+        <v>lars.hermans@student.kdg.be</v>
+      </c>
+      <c r="C333">
+        <v>14</v>
+      </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>Lauren Heye</v>
+      </c>
+      <c r="B334" t="str">
+        <v>lauren.heye@student.kdg.be</v>
+      </c>
+      <c r="C334">
+        <v>30</v>
+      </c>
+      <c r="D334">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>Lena De Maere</v>
+      </c>
+      <c r="B335" t="str">
+        <v>lena.demaere@student.kdg.be</v>
+      </c>
+      <c r="C335">
+        <v>27</v>
+      </c>
+      <c r="D335">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>Amber Tóth</v>
+      </c>
+      <c r="B336" t="str">
+        <v>amber.toth@student.kdg.be</v>
+      </c>
+      <c r="C336">
+        <v>17</v>
+      </c>
+      <c r="D336">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>Matthias Morlion</v>
+      </c>
+      <c r="B337" t="str">
+        <v>matthias.morlion@student.kdg.be</v>
+      </c>
+      <c r="C337">
+        <v>25</v>
+      </c>
+      <c r="D337">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>Sarah Broeckx</v>
+      </c>
+      <c r="B338" t="str">
+        <v>sarah.broeckx@student.kdg.be</v>
+      </c>
+      <c r="C338">
+        <v>26</v>
+      </c>
+      <c r="D338">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>Karen Meulebroeck</v>
+      </c>
+      <c r="B339" t="str">
+        <v>karen.meulebroeck@student.kdg.be</v>
+      </c>
+      <c r="C339">
+        <v>36</v>
+      </c>
+      <c r="D339">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>Sam Koolen</v>
+      </c>
+      <c r="B340" t="str">
+        <v>sam.koolen@student.kdg.be</v>
+      </c>
+      <c r="C340">
+        <v>31</v>
+      </c>
+      <c r="D340">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>Arnaud Decleyre</v>
+      </c>
+      <c r="B341" t="str">
+        <v>arnaud.decleyre@student.kdg.be</v>
+      </c>
+      <c r="C341">
+        <v>33</v>
+      </c>
+      <c r="D341">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>Robbe Leboy</v>
+      </c>
+      <c r="B342" t="str">
+        <v>robbe.leboy@student.kdg.be</v>
+      </c>
+      <c r="C342">
+        <v>32</v>
+      </c>
+      <c r="D342">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>Brian Verbeeck</v>
+      </c>
+      <c r="B343" t="str">
+        <v>brian.verbeeck@student.kdg.be</v>
+      </c>
+      <c r="C343">
+        <v>31</v>
+      </c>
+      <c r="D343">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>Noura Daoudi</v>
+      </c>
+      <c r="B344" t="str">
+        <v>noura.daoudi@student.kdg.be</v>
+      </c>
+      <c r="C344">
+        <v>25</v>
+      </c>
+      <c r="D344">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>Amirhosein Mobasser</v>
+      </c>
+      <c r="B345" t="str">
+        <v>amirhosein.mobasser@student.kdg.be</v>
+      </c>
+      <c r="C345">
+        <v>24</v>
+      </c>
+      <c r="D345">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>Cléo Allegaert</v>
+      </c>
+      <c r="B346" t="str">
+        <v>cleo.allegaert@student.kdg.be</v>
+      </c>
+      <c r="C346">
+        <v>32</v>
+      </c>
+      <c r="D346">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>Zana Van Houtven</v>
+      </c>
+      <c r="B347" t="str">
+        <v>zana.vanhoutven@student.kdg.be</v>
+      </c>
+      <c r="C347">
+        <v>23</v>
+      </c>
+      <c r="D347">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>Nico Jean Van Regenmortel</v>
+      </c>
+      <c r="B348" t="str">
+        <v>nicojean.vanregenmortel@student.kdg.be</v>
+      </c>
+      <c r="C348">
+        <v>11</v>
+      </c>
+      <c r="D348">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>Lukas Dockx</v>
+      </c>
+      <c r="B349" t="str">
+        <v>lukas.dockx@student.kdg.be</v>
+      </c>
+      <c r="C349">
+        <v>32</v>
+      </c>
+      <c r="D349">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>Dieter Tampère</v>
+      </c>
+      <c r="B350" t="str">
+        <v>dieter.tampere@student.kdg.be</v>
+      </c>
+      <c r="C350">
+        <v>36</v>
+      </c>
+      <c r="D350">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>Tom Desair</v>
+      </c>
+      <c r="B351" t="str">
+        <v>tom.desair@student.kdg.be</v>
+      </c>
+      <c r="C351">
+        <v>30</v>
+      </c>
+      <c r="D351">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>Cursist toetsen</v>
+      </c>
+      <c r="B352" t="str">
+        <v>onbekend</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D352"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/text.xlsx
+++ b/text.xlsx
@@ -375,84 +375,1187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>sorteernaam</v>
+      </c>
+      <c r="B1" t="str">
         <v>naam</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>email</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>originele score</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>hereberekende score</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Peter Van Marcke</v>
+        <v>Ballardini Evita</v>
       </c>
       <c r="B2" t="str">
-        <v>peter.vanmarcke@kdg.be</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
+        <v>Evita Ballardini</v>
+      </c>
+      <c r="C2" t="str">
+        <v>evita.ballardini@student.kdg.be</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>16.67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Roeptest Teststudent1</v>
+        <v>schouten stijn</v>
       </c>
       <c r="B3" t="str">
-        <v>test.teststudent1@student.kdg.be</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
+        <v>stijn schouten</v>
+      </c>
+      <c r="C3" t="str">
+        <v>stijn.schouten@student.kdg.be</v>
       </c>
       <c r="D3">
-        <v>58</v>
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>13.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Test Student</v>
+        <v>Noben An-Katrien</v>
       </c>
       <c r="B4" t="str">
-        <v>onbekend</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
+        <v>An-Katrien Noben</v>
+      </c>
+      <c r="C4" t="str">
+        <v>ankatrien.noben@student.kdg.be</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>16.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Veerle Meuleman</v>
+        <v>Carmona Alarcon Heymily</v>
       </c>
       <c r="B5" t="str">
-        <v>veerle.meuleman@student.kdg.be</v>
-      </c>
-      <c r="C5">
+        <v>Heymily Carmona Alarcon</v>
+      </c>
+      <c r="C5" t="str">
+        <v>heymily.carmonaalarcon@student.kdg.be</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Pereira Mota Sandra</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Sandra Pereira Mota</v>
+      </c>
+      <c r="C6" t="str">
+        <v>sandra.pereiramota@student.kdg.be</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Badi Siham</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Siham Badi</v>
+      </c>
+      <c r="C7" t="str">
+        <v>siham.badi@student.kdg.be</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>De Rycke Fenya</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Fenya De Rycke</v>
+      </c>
+      <c r="C8" t="str">
+        <v>fenya.derycke@student.kdg.be</v>
+      </c>
+      <c r="D8">
         <v>8</v>
       </c>
-      <c r="D5">
-        <v>50</v>
+      <c r="E8">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>El Kaddouri Sakina</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Sakina El Kaddouri</v>
+      </c>
+      <c r="C9" t="str">
+        <v>sakina.elkaddouri@student.kdg.be</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>De Taeye Vicky</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Vicky De Taeye</v>
+      </c>
+      <c r="C10" t="str">
+        <v>vicky.detaeye@student.kdg.be</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Ceuppens Tjana</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Tjana Ceuppens</v>
+      </c>
+      <c r="C11" t="str">
+        <v>tjana.ceuppens@student.kdg.be</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Akkar Ayten</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Ayten Akkar</v>
+      </c>
+      <c r="C12" t="str">
+        <v>ayten.akkar@student.kdg.be</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Sannen Paulien</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Paulien Sannen</v>
+      </c>
+      <c r="C13" t="str">
+        <v>paulien.sannen@student.kdg.be</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Stevens Margot</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Margot Stevens</v>
+      </c>
+      <c r="C14" t="str">
+        <v>margot.stevens@student.kdg.be</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Van Dyck Vincent</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Vincent Van Dyck</v>
+      </c>
+      <c r="C15" t="str">
+        <v>vincent.vandyck@student.kdg.be</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Aerts Seppe</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Seppe Aerts</v>
+      </c>
+      <c r="C16" t="str">
+        <v>seppe.aerts@student.kdg.be</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Boujdaine Nora</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Nora Boujdaine</v>
+      </c>
+      <c r="C17" t="str">
+        <v>nora.boujdaine@student.kdg.be</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>De Wulf Topanga</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Topanga De Wulf</v>
+      </c>
+      <c r="C18" t="str">
+        <v>topanga.dewulf@student.kdg.be</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>De Clercq Kaya</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Kaya De Clercq</v>
+      </c>
+      <c r="C19" t="str">
+        <v>kaya.declercq@student.kdg.be</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Gotink Milenka</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Milenka Gotink</v>
+      </c>
+      <c r="C20" t="str">
+        <v>milenka.gotink@student.kdg.be</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Khalil Aniqa</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Aniqa Khalil</v>
+      </c>
+      <c r="C21" t="str">
+        <v>aniqa.khalil@student.kdg.be</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Matthew Shawn</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Shawn Matthew</v>
+      </c>
+      <c r="C22" t="str">
+        <v>shawn.matthew@student.kdg.be</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Geudens Marie</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Marie Geudens</v>
+      </c>
+      <c r="C23" t="str">
+        <v>marie.geudens@student.kdg.be</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Gouwy Charlotte</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Charlotte Gouwy</v>
+      </c>
+      <c r="C24" t="str">
+        <v>charlotte.gouwy@student.kdg.be</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Schepers Robin</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Robin Schepers</v>
+      </c>
+      <c r="C25" t="str">
+        <v>robin.schepers@student.kdg.be</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Kennes Arne</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Arne Kennes</v>
+      </c>
+      <c r="C26" t="str">
+        <v>arne.kennes@student.kdg.be</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Van Hees Sarah</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Sarah Van Hees</v>
+      </c>
+      <c r="C27" t="str">
+        <v>sarah.vanhees@student.kdg.be</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Bodenstaff Jamie-lee</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Jamie-lee Bodenstaff</v>
+      </c>
+      <c r="C28" t="str">
+        <v>jamielee.bodenstaff@student.kdg.be</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>De Neef Shari</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Shari De Neef</v>
+      </c>
+      <c r="C29" t="str">
+        <v>shari.deneef@student.kdg.be</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Bailly Julie</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Julie Bailly</v>
+      </c>
+      <c r="C30" t="str">
+        <v>julie.bailly@student.kdg.be</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Thaens Marth</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Marth Thaens</v>
+      </c>
+      <c r="C31" t="str">
+        <v>marth.thaens@student.kdg.be</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Maes Yenthe</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Yenthe Maes</v>
+      </c>
+      <c r="C32" t="str">
+        <v>yenthe.maes@student.kdg.be</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Goor Sharon</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Sharon Goor</v>
+      </c>
+      <c r="C33" t="str">
+        <v>sharon.goor@student.kdg.be</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Van den Bergh Lisa</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Lisa Van den Bergh</v>
+      </c>
+      <c r="C34" t="str">
+        <v>lisa.vandenbergh@student.kdg.be</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>De Busser Margo</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Margo De Busser</v>
+      </c>
+      <c r="C35" t="str">
+        <v>margo.debusser@student.kdg.be</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>De Norre Robby</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Robby De Norre</v>
+      </c>
+      <c r="C36" t="str">
+        <v>robby.denorre@student.kdg.be</v>
+      </c>
+      <c r="D36">
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Gabaret Olivia</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Olivia Gabaret</v>
+      </c>
+      <c r="C37" t="str">
+        <v>olivia.gabaret@student.kdg.be</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>binnemans chelsea</v>
+      </c>
+      <c r="B38" t="str">
+        <v>chelsea binnemans</v>
+      </c>
+      <c r="C38" t="str">
+        <v>chelsea.binnemans@student.kdg.be</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Chaves Ilana</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Ilana Chaves</v>
+      </c>
+      <c r="C39" t="str">
+        <v>ilana.chaves@student.kdg.be</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Van den Broeck Hanne</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Hanne Van den Broeck</v>
+      </c>
+      <c r="C40" t="str">
+        <v>hanne.vandenbroeck@student.kdg.be</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Bogaert Mike</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Mike Bogaert</v>
+      </c>
+      <c r="C41" t="str">
+        <v>mike.bogaert@student.kdg.be</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Deneyer Ilke</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Ilke Deneyer</v>
+      </c>
+      <c r="C42" t="str">
+        <v>ilke.deneyer@student.kdg.be</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>De Vree Silvana</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Silvana De Vree</v>
+      </c>
+      <c r="C43" t="str">
+        <v>silvana.devree@student.kdg.be</v>
+      </c>
+      <c r="D43">
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>De Jonghe Romy</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Romy De Jonghe</v>
+      </c>
+      <c r="C44" t="str">
+        <v>romy.dejonghe@student.kdg.be</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Van Hove Brontë</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Brontë Van Hove</v>
+      </c>
+      <c r="C45" t="str">
+        <v>bronte.vanhove@student.kdg.be</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Ceulemants Anke</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Anke Ceulemants</v>
+      </c>
+      <c r="C46" t="str">
+        <v>anke.ceulemants@student.kdg.be</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Kenis Virginie</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Virginie Kenis</v>
+      </c>
+      <c r="C47" t="str">
+        <v>virginie.kenis@student.kdg.be</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Hellemons Nina</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Nina Hellemons</v>
+      </c>
+      <c r="C48" t="str">
+        <v>nina.hellemons@student.kdg.be</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Van Buynder Anke</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Anke Van Buynder</v>
+      </c>
+      <c r="C49" t="str">
+        <v>anke.vanbuynder@student.kdg.be</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Van Duppen Jasper</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Jasper Van Duppen</v>
+      </c>
+      <c r="C50" t="str">
+        <v>jasper.vanduppen@student.kdg.be</v>
+      </c>
+      <c r="D50">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>van Veldhoven Renske</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Renske van Veldhoven</v>
+      </c>
+      <c r="C51" t="str">
+        <v>renske.vanveldhoven@student.kdg.be</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Wauters Charlotte</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Charlotte Wauters</v>
+      </c>
+      <c r="C52" t="str">
+        <v>charlotte.wauters@student.kdg.be</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="E52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Mampaey Floor</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Floor Mampaey</v>
+      </c>
+      <c r="C53" t="str">
+        <v>floor.mampaey@student.kdg.be</v>
+      </c>
+      <c r="D53">
+        <v>9</v>
+      </c>
+      <c r="E53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Van Aert Megg</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Megg Van Aert</v>
+      </c>
+      <c r="C54" t="str">
+        <v>megg.vanaert@student.kdg.be</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+      <c r="E54">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Scherens Rani</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Rani Scherens</v>
+      </c>
+      <c r="C55" t="str">
+        <v>rani.scherens@student.kdg.be</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="E55">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Vermeulen Kato</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Kato Vermeulen</v>
+      </c>
+      <c r="C56" t="str">
+        <v>kato.vermeulen@student.kdg.be</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Waterschoot Ilse</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Ilse Waterschoot</v>
+      </c>
+      <c r="C57" t="str">
+        <v>ilse.waterschoot@student.kdg.be</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Üstboga Beyza</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Beyza Üstboga</v>
+      </c>
+      <c r="C58" t="str">
+        <v>beyza.ustboga@student.kdg.be</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="E58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Meersschaert Yara</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Yara Meersschaert</v>
+      </c>
+      <c r="C59" t="str">
+        <v>yara.meersschaert@student.kdg.be</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Smet Jorien</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Jorien Smet</v>
+      </c>
+      <c r="C60" t="str">
+        <v>jorien.smet@student.kdg.be</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>van Aert Chiara</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Chiara van Aert</v>
+      </c>
+      <c r="C61" t="str">
+        <v>chiara.vanaert@student.kdg.be</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Weckx Sylvie</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Sylvie Weckx</v>
+      </c>
+      <c r="C62" t="str">
+        <v>sylvie.weckx@student.kdg.be</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>de Leur Amélie</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Amélie de Leur</v>
+      </c>
+      <c r="C63" t="str">
+        <v>amelie.deleur@student.kdg.be</v>
+      </c>
+      <c r="D63">
+        <v>9</v>
+      </c>
+      <c r="E63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Sels Elien</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Elien Sels</v>
+      </c>
+      <c r="C64" t="str">
+        <v>elien.sels@student.kdg.be</v>
+      </c>
+      <c r="D64">
+        <v>9</v>
+      </c>
+      <c r="E64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Van Der Heyden Xanthe</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Xanthe Van Der Heyden</v>
+      </c>
+      <c r="C65" t="str">
+        <v>xanthe.vanderheyden@student.kdg.be</v>
+      </c>
+      <c r="D65">
+        <v>8</v>
+      </c>
+      <c r="E65">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Cartuyvels Stien</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Stien Cartuyvels</v>
+      </c>
+      <c r="C66" t="str">
+        <v>stien.cartuyvels@student.kdg.be</v>
+      </c>
+      <c r="D66">
+        <v>9</v>
+      </c>
+      <c r="E66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Dijkhuis Ninon</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Ninon Dijkhuis</v>
+      </c>
+      <c r="C67" t="str">
+        <v>ninon.dijkhuis@student.kdg.be</v>
+      </c>
+      <c r="D67">
+        <v>9</v>
+      </c>
+      <c r="E67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Goor Kelly</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Kelly Goor</v>
+      </c>
+      <c r="C68" t="str">
+        <v>kelly.goor@student.kdg.be</v>
+      </c>
+      <c r="D68">
+        <v>9</v>
+      </c>
+      <c r="E68">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Bertels Stefanie</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Stefanie Bertels</v>
+      </c>
+      <c r="C69" t="str">
+        <v>stefanie.bertels@student.kdg.be</v>
+      </c>
+      <c r="D69">
+        <v>9</v>
+      </c>
+      <c r="E69">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E69"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/text.xlsx
+++ b/text.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,1163 +399,670 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Ballardini Evita</v>
+        <v>Van Linden Stijn</v>
       </c>
       <c r="B2" t="str">
-        <v>Evita Ballardini</v>
+        <v>Stijn Van Linden</v>
       </c>
       <c r="C2" t="str">
-        <v>evita.ballardini@student.kdg.be</v>
+        <v>stijn.vanlinden@student.kdg.be</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>16.67</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>schouten stijn</v>
+        <v>Gulinck Joris</v>
       </c>
       <c r="B3" t="str">
-        <v>stijn schouten</v>
+        <v>Joris Gulinck</v>
       </c>
       <c r="C3" t="str">
-        <v>stijn.schouten@student.kdg.be</v>
+        <v>joris.gulinck@student.kdg.be</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>13.33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Noben An-Katrien</v>
+        <v>Romero Valeria Jael Esteban</v>
       </c>
       <c r="B4" t="str">
-        <v>An-Katrien Noben</v>
+        <v>Jael Esteban Romero Valeria</v>
       </c>
       <c r="C4" t="str">
-        <v>ankatrien.noben@student.kdg.be</v>
+        <v>jaelesteban.romerovaleria@student.kdg.be</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4">
-        <v>16.67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Carmona Alarcon Heymily</v>
+        <v>Peelmans Gert</v>
       </c>
       <c r="B5" t="str">
-        <v>Heymily Carmona Alarcon</v>
+        <v>Gert Peelmans</v>
       </c>
       <c r="C5" t="str">
-        <v>heymily.carmonaalarcon@student.kdg.be</v>
+        <v>gert.peelmans@student.kdg.be</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Pereira Mota Sandra</v>
+        <v>Deleye Steven</v>
       </c>
       <c r="B6" t="str">
-        <v>Sandra Pereira Mota</v>
+        <v>Steven Deleye</v>
       </c>
       <c r="C6" t="str">
-        <v>sandra.pereiramota@student.kdg.be</v>
+        <v>steven.deleye@student.kdg.be</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Badi Siham</v>
+        <v>Smet Kevin</v>
       </c>
       <c r="B7" t="str">
-        <v>Siham Badi</v>
+        <v>Kevin Smet</v>
       </c>
       <c r="C7" t="str">
-        <v>siham.badi@student.kdg.be</v>
+        <v>kevin.smet@student.kdg.be</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>13.33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>De Rycke Fenya</v>
+        <v>Raats Katrien</v>
       </c>
       <c r="B8" t="str">
-        <v>Fenya De Rycke</v>
+        <v>Katrien Raats</v>
       </c>
       <c r="C8" t="str">
-        <v>fenya.derycke@student.kdg.be</v>
+        <v>katrien.raats@student.kdg.be</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>16.67</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>El Kaddouri Sakina</v>
+        <v>Daenekindt Saartje</v>
       </c>
       <c r="B9" t="str">
-        <v>Sakina El Kaddouri</v>
+        <v>Saartje Daenekindt</v>
       </c>
       <c r="C9" t="str">
-        <v>sakina.elkaddouri@student.kdg.be</v>
+        <v>saartje.daenekindt@student.kdg.be</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E9">
-        <v>16.67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>De Taeye Vicky</v>
+        <v>Lempens Jan</v>
       </c>
       <c r="B10" t="str">
-        <v>Vicky De Taeye</v>
+        <v>Jan Lempens</v>
       </c>
       <c r="C10" t="str">
-        <v>vicky.detaeye@student.kdg.be</v>
+        <v>jan.lempens@student.kdg.be</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>16.67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Ceuppens Tjana</v>
+        <v>Matthijs Frank</v>
       </c>
       <c r="B11" t="str">
-        <v>Tjana Ceuppens</v>
+        <v>Frank Matthijs</v>
       </c>
       <c r="C11" t="str">
-        <v>tjana.ceuppens@student.kdg.be</v>
+        <v>frank.matthijs@student.kdg.be</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Akkar Ayten</v>
+        <v>Aerts Wesley</v>
       </c>
       <c r="B12" t="str">
-        <v>Ayten Akkar</v>
+        <v>Wesley Aerts</v>
       </c>
       <c r="C12" t="str">
-        <v>ayten.akkar@student.kdg.be</v>
+        <v>wesley.aerts@student.kdg.be</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Sannen Paulien</v>
+        <v>Saadane Taoufik</v>
       </c>
       <c r="B13" t="str">
-        <v>Paulien Sannen</v>
+        <v>Taoufik Saadane</v>
       </c>
       <c r="C13" t="str">
-        <v>paulien.sannen@student.kdg.be</v>
+        <v>taoufik.saadane@student.kdg.be</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>16.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Stevens Margot</v>
+        <v>Van Audenrode Yoerick</v>
       </c>
       <c r="B14" t="str">
-        <v>Margot Stevens</v>
+        <v>Yoerick Van Audenrode</v>
       </c>
       <c r="C14" t="str">
-        <v>margot.stevens@student.kdg.be</v>
+        <v>yoerick.vanaudenrode@student.kdg.be</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Van Dyck Vincent</v>
+        <v>Devolder Sara</v>
       </c>
       <c r="B15" t="str">
-        <v>Vincent Van Dyck</v>
+        <v>Sara Devolder</v>
       </c>
       <c r="C15" t="str">
-        <v>vincent.vandyck@student.kdg.be</v>
+        <v>sara.devolder@student.kdg.be</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Aerts Seppe</v>
+        <v>Mennes Katrien</v>
       </c>
       <c r="B16" t="str">
-        <v>Seppe Aerts</v>
+        <v>Katrien Mennes</v>
       </c>
       <c r="C16" t="str">
-        <v>seppe.aerts@student.kdg.be</v>
+        <v>katrien.mennes@student.kdg.be</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Boujdaine Nora</v>
+        <v>Geleyn Angelo</v>
       </c>
       <c r="B17" t="str">
-        <v>Nora Boujdaine</v>
+        <v>Angelo Geleyn</v>
       </c>
       <c r="C17" t="str">
-        <v>nora.boujdaine@student.kdg.be</v>
+        <v>angelo.geleyn@student.kdg.be</v>
       </c>
       <c r="D17">
         <v>8</v>
       </c>
       <c r="E17">
-        <v>16.67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>De Wulf Topanga</v>
+        <v>van Rhee Machiel Nicolaas Koenraad</v>
       </c>
       <c r="B18" t="str">
-        <v>Topanga De Wulf</v>
+        <v>Machiel Nicolaas Koenraad van Rhee</v>
       </c>
       <c r="C18" t="str">
-        <v>topanga.dewulf@student.kdg.be</v>
+        <v>machielnicolaaskoenraad.vanrhee@student.kdg.be</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>16.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>De Clercq Kaya</v>
+        <v>Boushabi Ismaïl</v>
       </c>
       <c r="B19" t="str">
-        <v>Kaya De Clercq</v>
+        <v>Ismaïl Boushabi</v>
       </c>
       <c r="C19" t="str">
-        <v>kaya.declercq@student.kdg.be</v>
+        <v>ismail.boushabi@student.kdg.be</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Gotink Milenka</v>
+        <v>Joos Bavo</v>
       </c>
       <c r="B20" t="str">
-        <v>Milenka Gotink</v>
+        <v>Bavo Joos</v>
       </c>
       <c r="C20" t="str">
-        <v>milenka.gotink@student.kdg.be</v>
+        <v>bavo.joos@student.kdg.be</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Khalil Aniqa</v>
+        <v>Dupont Kim</v>
       </c>
       <c r="B21" t="str">
-        <v>Aniqa Khalil</v>
+        <v>Kim Dupont</v>
       </c>
       <c r="C21" t="str">
-        <v>aniqa.khalil@student.kdg.be</v>
+        <v>kim.dupont.1@student.kdg.be</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Matthew Shawn</v>
+        <v>Komendová Lucia</v>
       </c>
       <c r="B22" t="str">
-        <v>Shawn Matthew</v>
+        <v>Lucia Komendová</v>
       </c>
       <c r="C22" t="str">
-        <v>shawn.matthew@student.kdg.be</v>
+        <v>lucia.komendova@student.kdg.be</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Geudens Marie</v>
+        <v>Foblets Daniëla</v>
       </c>
       <c r="B23" t="str">
-        <v>Marie Geudens</v>
+        <v>Daniëla Foblets</v>
       </c>
       <c r="C23" t="str">
-        <v>marie.geudens@student.kdg.be</v>
+        <v>daniela.foblets@student.kdg.be</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Gouwy Charlotte</v>
+        <v>Geurtse Thierry</v>
       </c>
       <c r="B24" t="str">
-        <v>Charlotte Gouwy</v>
+        <v>Thierry Geurtse</v>
       </c>
       <c r="C24" t="str">
-        <v>charlotte.gouwy@student.kdg.be</v>
+        <v>thierry.geurtse@student.kdg.be</v>
       </c>
       <c r="D24">
         <v>9</v>
       </c>
       <c r="E24">
-        <v>20</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Schepers Robin</v>
+        <v>Hoeykens Michael</v>
       </c>
       <c r="B25" t="str">
-        <v>Robin Schepers</v>
+        <v>Michael Hoeykens</v>
       </c>
       <c r="C25" t="str">
-        <v>robin.schepers@student.kdg.be</v>
+        <v>michael.hoeykens@student.kdg.be</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E25">
-        <v>16.67</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Kennes Arne</v>
+        <v>Daelemans Dennis</v>
       </c>
       <c r="B26" t="str">
-        <v>Arne Kennes</v>
+        <v>Dennis Daelemans</v>
       </c>
       <c r="C26" t="str">
-        <v>arne.kennes@student.kdg.be</v>
+        <v>dennis.daelemans@student.kdg.be</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Van Hees Sarah</v>
+        <v>Behhadi Anis</v>
       </c>
       <c r="B27" t="str">
-        <v>Sarah Van Hees</v>
+        <v>Anis Behhadi</v>
       </c>
       <c r="C27" t="str">
-        <v>sarah.vanhees@student.kdg.be</v>
+        <v>anis.behhadi@student.kdg.be</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Bodenstaff Jamie-lee</v>
+        <v>Celik Bedirgan</v>
       </c>
       <c r="B28" t="str">
-        <v>Jamie-lee Bodenstaff</v>
+        <v>Bedirgan Celik</v>
       </c>
       <c r="C28" t="str">
-        <v>jamielee.bodenstaff@student.kdg.be</v>
+        <v>bedirgan.celik@student.kdg.be</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E28">
-        <v>20</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>De Neef Shari</v>
+        <v>Verheyen Bram</v>
       </c>
       <c r="B29" t="str">
-        <v>Shari De Neef</v>
+        <v>Bram Verheyen</v>
       </c>
       <c r="C29" t="str">
-        <v>shari.deneef@student.kdg.be</v>
+        <v>bram.verheyen@student.kdg.be</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E29">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Bailly Julie</v>
+        <v>Denaux Esa</v>
       </c>
       <c r="B30" t="str">
-        <v>Julie Bailly</v>
+        <v>Esa Denaux</v>
       </c>
       <c r="C30" t="str">
-        <v>julie.bailly@student.kdg.be</v>
+        <v>esa.denaux@student.kdg.be</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30">
-        <v>6.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Thaens Marth</v>
+        <v>Gadeyne Seppe</v>
       </c>
       <c r="B31" t="str">
-        <v>Marth Thaens</v>
+        <v>Seppe Gadeyne</v>
       </c>
       <c r="C31" t="str">
-        <v>marth.thaens@student.kdg.be</v>
+        <v>seppe.gadeyne@student.kdg.be</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E31">
-        <v>13.33</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Maes Yenthe</v>
+        <v>Verheyen Chloé</v>
       </c>
       <c r="B32" t="str">
-        <v>Yenthe Maes</v>
+        <v>Chloé Verheyen</v>
       </c>
       <c r="C32" t="str">
-        <v>yenthe.maes@student.kdg.be</v>
+        <v>chloe.verheyen@student.kdg.be</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Goor Sharon</v>
+        <v>Roskams Mark</v>
       </c>
       <c r="B33" t="str">
-        <v>Sharon Goor</v>
+        <v>Mark Roskams</v>
       </c>
       <c r="C33" t="str">
-        <v>sharon.goor@student.kdg.be</v>
+        <v>mark.roskams@student.kdg.be</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33">
-        <v>16.67</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Van den Bergh Lisa</v>
+        <v>Janssens Wim</v>
       </c>
       <c r="B34" t="str">
-        <v>Lisa Van den Bergh</v>
+        <v>Wim Janssens</v>
       </c>
       <c r="C34" t="str">
-        <v>lisa.vandenbergh@student.kdg.be</v>
+        <v>wim.janssens@student.kdg.be</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E34">
-        <v>13.33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>De Busser Margo</v>
+        <v>Schepers Adriaan</v>
       </c>
       <c r="B35" t="str">
-        <v>Margo De Busser</v>
+        <v>Adriaan Schepers</v>
       </c>
       <c r="C35" t="str">
-        <v>margo.debusser@student.kdg.be</v>
+        <v>adriaan.schepers@student.kdg.be</v>
       </c>
       <c r="D35">
         <v>9</v>
       </c>
       <c r="E35">
-        <v>20</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>De Norre Robby</v>
+        <v>Smets Miet</v>
       </c>
       <c r="B36" t="str">
-        <v>Robby De Norre</v>
+        <v>Miet Smets</v>
       </c>
       <c r="C36" t="str">
-        <v>robby.denorre@student.kdg.be</v>
+        <v>miet.smets@student.kdg.be</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E36">
-        <v>20</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Gabaret Olivia</v>
+        <v>Tersago Vera</v>
       </c>
       <c r="B37" t="str">
-        <v>Olivia Gabaret</v>
+        <v>Vera Tersago</v>
       </c>
       <c r="C37" t="str">
-        <v>olivia.gabaret@student.kdg.be</v>
+        <v>vera.tersago@student.kdg.be</v>
       </c>
       <c r="D37">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E37">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>binnemans chelsea</v>
+        <v>Radart Gauthier</v>
       </c>
       <c r="B38" t="str">
-        <v>chelsea binnemans</v>
+        <v>Gauthier Radart</v>
       </c>
       <c r="C38" t="str">
-        <v>chelsea.binnemans@student.kdg.be</v>
+        <v>gauthier.radart@student.kdg.be</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E38">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Chaves Ilana</v>
+        <v>Haex Christel</v>
       </c>
       <c r="B39" t="str">
-        <v>Ilana Chaves</v>
+        <v>Christel Haex</v>
       </c>
       <c r="C39" t="str">
-        <v>ilana.chaves@student.kdg.be</v>
+        <v>christel.haex@student.kdg.be</v>
       </c>
       <c r="D39">
+        <v>12</v>
+      </c>
+      <c r="E39">
         <v>8</v>
-      </c>
-      <c r="E39">
-        <v>16.67</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Van den Broeck Hanne</v>
+        <v>Agneessens Alexander</v>
       </c>
       <c r="B40" t="str">
-        <v>Hanne Van den Broeck</v>
+        <v>Alexander Agneessens</v>
       </c>
       <c r="C40" t="str">
-        <v>hanne.vandenbroeck@student.kdg.be</v>
+        <v>alexander.agneessens@student.kdg.be</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E40">
-        <v>16.67</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>Bogaert Mike</v>
-      </c>
-      <c r="B41" t="str">
-        <v>Mike Bogaert</v>
-      </c>
-      <c r="C41" t="str">
-        <v>mike.bogaert@student.kdg.be</v>
-      </c>
-      <c r="D41">
-        <v>8</v>
-      </c>
-      <c r="E41">
-        <v>16.67</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>Deneyer Ilke</v>
-      </c>
-      <c r="B42" t="str">
-        <v>Ilke Deneyer</v>
-      </c>
-      <c r="C42" t="str">
-        <v>ilke.deneyer@student.kdg.be</v>
-      </c>
-      <c r="D42">
-        <v>9</v>
-      </c>
-      <c r="E42">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>De Vree Silvana</v>
-      </c>
-      <c r="B43" t="str">
-        <v>Silvana De Vree</v>
-      </c>
-      <c r="C43" t="str">
-        <v>silvana.devree@student.kdg.be</v>
-      </c>
-      <c r="D43">
-        <v>9</v>
-      </c>
-      <c r="E43">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>De Jonghe Romy</v>
-      </c>
-      <c r="B44" t="str">
-        <v>Romy De Jonghe</v>
-      </c>
-      <c r="C44" t="str">
-        <v>romy.dejonghe@student.kdg.be</v>
-      </c>
-      <c r="D44">
-        <v>8</v>
-      </c>
-      <c r="E44">
-        <v>16.67</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>Van Hove Brontë</v>
-      </c>
-      <c r="B45" t="str">
-        <v>Brontë Van Hove</v>
-      </c>
-      <c r="C45" t="str">
-        <v>bronte.vanhove@student.kdg.be</v>
-      </c>
-      <c r="D45">
-        <v>5</v>
-      </c>
-      <c r="E45">
-        <v>6.67</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>Ceulemants Anke</v>
-      </c>
-      <c r="B46" t="str">
-        <v>Anke Ceulemants</v>
-      </c>
-      <c r="C46" t="str">
-        <v>anke.ceulemants@student.kdg.be</v>
-      </c>
-      <c r="D46">
-        <v>8</v>
-      </c>
-      <c r="E46">
-        <v>16.67</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>Kenis Virginie</v>
-      </c>
-      <c r="B47" t="str">
-        <v>Virginie Kenis</v>
-      </c>
-      <c r="C47" t="str">
-        <v>virginie.kenis@student.kdg.be</v>
-      </c>
-      <c r="D47">
-        <v>9</v>
-      </c>
-      <c r="E47">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>Hellemons Nina</v>
-      </c>
-      <c r="B48" t="str">
-        <v>Nina Hellemons</v>
-      </c>
-      <c r="C48" t="str">
-        <v>nina.hellemons@student.kdg.be</v>
-      </c>
-      <c r="D48">
-        <v>9</v>
-      </c>
-      <c r="E48">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>Van Buynder Anke</v>
-      </c>
-      <c r="B49" t="str">
-        <v>Anke Van Buynder</v>
-      </c>
-      <c r="C49" t="str">
-        <v>anke.vanbuynder@student.kdg.be</v>
-      </c>
-      <c r="D49">
-        <v>7</v>
-      </c>
-      <c r="E49">
-        <v>13.33</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>Van Duppen Jasper</v>
-      </c>
-      <c r="B50" t="str">
-        <v>Jasper Van Duppen</v>
-      </c>
-      <c r="C50" t="str">
-        <v>jasper.vanduppen@student.kdg.be</v>
-      </c>
-      <c r="D50">
-        <v>9</v>
-      </c>
-      <c r="E50">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>van Veldhoven Renske</v>
-      </c>
-      <c r="B51" t="str">
-        <v>Renske van Veldhoven</v>
-      </c>
-      <c r="C51" t="str">
-        <v>renske.vanveldhoven@student.kdg.be</v>
-      </c>
-      <c r="D51">
-        <v>6</v>
-      </c>
-      <c r="E51">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>Wauters Charlotte</v>
-      </c>
-      <c r="B52" t="str">
-        <v>Charlotte Wauters</v>
-      </c>
-      <c r="C52" t="str">
-        <v>charlotte.wauters@student.kdg.be</v>
-      </c>
-      <c r="D52">
-        <v>9</v>
-      </c>
-      <c r="E52">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>Mampaey Floor</v>
-      </c>
-      <c r="B53" t="str">
-        <v>Floor Mampaey</v>
-      </c>
-      <c r="C53" t="str">
-        <v>floor.mampaey@student.kdg.be</v>
-      </c>
-      <c r="D53">
-        <v>9</v>
-      </c>
-      <c r="E53">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>Van Aert Megg</v>
-      </c>
-      <c r="B54" t="str">
-        <v>Megg Van Aert</v>
-      </c>
-      <c r="C54" t="str">
-        <v>megg.vanaert@student.kdg.be</v>
-      </c>
-      <c r="D54">
-        <v>7</v>
-      </c>
-      <c r="E54">
-        <v>13.33</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>Scherens Rani</v>
-      </c>
-      <c r="B55" t="str">
-        <v>Rani Scherens</v>
-      </c>
-      <c r="C55" t="str">
-        <v>rani.scherens@student.kdg.be</v>
-      </c>
-      <c r="D55">
-        <v>7</v>
-      </c>
-      <c r="E55">
-        <v>13.33</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>Vermeulen Kato</v>
-      </c>
-      <c r="B56" t="str">
-        <v>Kato Vermeulen</v>
-      </c>
-      <c r="C56" t="str">
-        <v>kato.vermeulen@student.kdg.be</v>
-      </c>
-      <c r="D56">
-        <v>7</v>
-      </c>
-      <c r="E56">
-        <v>13.33</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>Waterschoot Ilse</v>
-      </c>
-      <c r="B57" t="str">
-        <v>Ilse Waterschoot</v>
-      </c>
-      <c r="C57" t="str">
-        <v>ilse.waterschoot@student.kdg.be</v>
-      </c>
-      <c r="D57">
-        <v>9</v>
-      </c>
-      <c r="E57">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>Üstboga Beyza</v>
-      </c>
-      <c r="B58" t="str">
-        <v>Beyza Üstboga</v>
-      </c>
-      <c r="C58" t="str">
-        <v>beyza.ustboga@student.kdg.be</v>
-      </c>
-      <c r="D58">
-        <v>9</v>
-      </c>
-      <c r="E58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>Meersschaert Yara</v>
-      </c>
-      <c r="B59" t="str">
-        <v>Yara Meersschaert</v>
-      </c>
-      <c r="C59" t="str">
-        <v>yara.meersschaert@student.kdg.be</v>
-      </c>
-      <c r="D59">
-        <v>5</v>
-      </c>
-      <c r="E59">
-        <v>6.67</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>Smet Jorien</v>
-      </c>
-      <c r="B60" t="str">
-        <v>Jorien Smet</v>
-      </c>
-      <c r="C60" t="str">
-        <v>jorien.smet@student.kdg.be</v>
-      </c>
-      <c r="D60">
-        <v>9</v>
-      </c>
-      <c r="E60">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>van Aert Chiara</v>
-      </c>
-      <c r="B61" t="str">
-        <v>Chiara van Aert</v>
-      </c>
-      <c r="C61" t="str">
-        <v>chiara.vanaert@student.kdg.be</v>
-      </c>
-      <c r="D61">
-        <v>6</v>
-      </c>
-      <c r="E61">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>Weckx Sylvie</v>
-      </c>
-      <c r="B62" t="str">
-        <v>Sylvie Weckx</v>
-      </c>
-      <c r="C62" t="str">
-        <v>sylvie.weckx@student.kdg.be</v>
-      </c>
-      <c r="D62">
-        <v>9</v>
-      </c>
-      <c r="E62">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>de Leur Amélie</v>
-      </c>
-      <c r="B63" t="str">
-        <v>Amélie de Leur</v>
-      </c>
-      <c r="C63" t="str">
-        <v>amelie.deleur@student.kdg.be</v>
-      </c>
-      <c r="D63">
-        <v>9</v>
-      </c>
-      <c r="E63">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>Sels Elien</v>
-      </c>
-      <c r="B64" t="str">
-        <v>Elien Sels</v>
-      </c>
-      <c r="C64" t="str">
-        <v>elien.sels@student.kdg.be</v>
-      </c>
-      <c r="D64">
-        <v>9</v>
-      </c>
-      <c r="E64">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>Van Der Heyden Xanthe</v>
-      </c>
-      <c r="B65" t="str">
-        <v>Xanthe Van Der Heyden</v>
-      </c>
-      <c r="C65" t="str">
-        <v>xanthe.vanderheyden@student.kdg.be</v>
-      </c>
-      <c r="D65">
-        <v>8</v>
-      </c>
-      <c r="E65">
-        <v>16.67</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>Cartuyvels Stien</v>
-      </c>
-      <c r="B66" t="str">
-        <v>Stien Cartuyvels</v>
-      </c>
-      <c r="C66" t="str">
-        <v>stien.cartuyvels@student.kdg.be</v>
-      </c>
-      <c r="D66">
-        <v>9</v>
-      </c>
-      <c r="E66">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>Dijkhuis Ninon</v>
-      </c>
-      <c r="B67" t="str">
-        <v>Ninon Dijkhuis</v>
-      </c>
-      <c r="C67" t="str">
-        <v>ninon.dijkhuis@student.kdg.be</v>
-      </c>
-      <c r="D67">
-        <v>9</v>
-      </c>
-      <c r="E67">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>Goor Kelly</v>
-      </c>
-      <c r="B68" t="str">
-        <v>Kelly Goor</v>
-      </c>
-      <c r="C68" t="str">
-        <v>kelly.goor@student.kdg.be</v>
-      </c>
-      <c r="D68">
-        <v>9</v>
-      </c>
-      <c r="E68">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>Bertels Stefanie</v>
-      </c>
-      <c r="B69" t="str">
-        <v>Stefanie Bertels</v>
-      </c>
-      <c r="C69" t="str">
-        <v>stefanie.bertels@student.kdg.be</v>
-      </c>
-      <c r="D69">
-        <v>9</v>
-      </c>
-      <c r="E69">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E69"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E40"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/text.xlsx
+++ b/text.xlsx
@@ -394,7 +394,7 @@
         <v>originele score</v>
       </c>
       <c r="E1" t="str">
-        <v>hereberekende score</v>
+        <v>herberekende score</v>
       </c>
     </row>
     <row r="2">
@@ -411,7 +411,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>3.5</v>
+        <v>5.3333</v>
       </c>
     </row>
     <row r="3">
@@ -428,7 +428,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>10.6667</v>
       </c>
     </row>
     <row r="4">
@@ -445,7 +445,7 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>5.3333</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>2.6667</v>
       </c>
     </row>
     <row r="6">
@@ -479,7 +479,7 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -513,7 +513,7 @@
         <v>16</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -530,7 +530,7 @@
         <v>14</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -547,7 +547,7 @@
         <v>14</v>
       </c>
       <c r="E10">
-        <v>11</v>
+        <v>13.3333</v>
       </c>
     </row>
     <row r="11">
@@ -564,7 +564,7 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>6.6667</v>
       </c>
     </row>
     <row r="12">
@@ -581,7 +581,7 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>6.6667</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>7</v>
       </c>
       <c r="E14">
-        <v>0.5</v>
+        <v>2.6667</v>
       </c>
     </row>
     <row r="15">
@@ -632,7 +632,7 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -649,7 +649,7 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>12.5</v>
+        <v>13.3333</v>
       </c>
     </row>
     <row r="17">
@@ -666,7 +666,7 @@
         <v>8</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>5.3333</v>
       </c>
     </row>
     <row r="18">
@@ -683,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1.3333</v>
       </c>
     </row>
     <row r="19">
@@ -734,7 +734,7 @@
         <v>14</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -751,7 +751,7 @@
         <v>18</v>
       </c>
       <c r="E22">
-        <v>17</v>
+        <v>17.3333</v>
       </c>
     </row>
     <row r="23">
@@ -768,7 +768,7 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>12.5</v>
+        <v>13.3333</v>
       </c>
     </row>
     <row r="24">
@@ -785,7 +785,7 @@
         <v>9</v>
       </c>
       <c r="E24">
-        <v>3.5</v>
+        <v>5.3333</v>
       </c>
     </row>
     <row r="25">
@@ -802,7 +802,7 @@
         <v>16</v>
       </c>
       <c r="E25">
-        <v>14</v>
+        <v>14.6667</v>
       </c>
     </row>
     <row r="26">
@@ -836,7 +836,7 @@
         <v>8</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -853,7 +853,7 @@
         <v>11</v>
       </c>
       <c r="E28">
-        <v>6.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -870,7 +870,7 @@
         <v>14</v>
       </c>
       <c r="E29">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -904,7 +904,7 @@
         <v>13</v>
       </c>
       <c r="E31">
-        <v>9.5</v>
+        <v>10.6667</v>
       </c>
     </row>
     <row r="32">
@@ -921,7 +921,7 @@
         <v>13</v>
       </c>
       <c r="E32">
-        <v>9.5</v>
+        <v>10.6667</v>
       </c>
     </row>
     <row r="33">
@@ -938,7 +938,7 @@
         <v>7</v>
       </c>
       <c r="E33">
-        <v>0.5</v>
+        <v>2.6667</v>
       </c>
     </row>
     <row r="34">
@@ -955,7 +955,7 @@
         <v>12</v>
       </c>
       <c r="E34">
-        <v>8</v>
+        <v>10.6667</v>
       </c>
     </row>
     <row r="35">
@@ -972,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="E35">
-        <v>3.5</v>
+        <v>5.3333</v>
       </c>
     </row>
     <row r="36">
@@ -989,7 +989,7 @@
         <v>11</v>
       </c>
       <c r="E36">
-        <v>6.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -1006,7 +1006,7 @@
         <v>6</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>2.6667</v>
       </c>
     </row>
     <row r="38">
@@ -1023,7 +1023,7 @@
         <v>10</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -1040,7 +1040,7 @@
         <v>12</v>
       </c>
       <c r="E39">
-        <v>8</v>
+        <v>9.3333</v>
       </c>
     </row>
     <row r="40">
@@ -1057,7 +1057,7 @@
         <v>14</v>
       </c>
       <c r="E40">
-        <v>11</v>
+        <v>13.3333</v>
       </c>
     </row>
   </sheetData>
